--- a/data/cylinder_radius_10.0/peak_shift/eal_5_restricted_range/offcenter_1/new_bg/water/model.xlsx
+++ b/data/cylinder_radius_10.0/peak_shift/eal_5_restricted_range/offcenter_1/new_bg/water/model.xlsx
@@ -570,7 +570,7 @@
         <v>5000.0</v>
       </c>
       <c r="P2">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q2">
         <v>0.002</v>
@@ -638,7 +638,7 @@
         <v>5000.0</v>
       </c>
       <c r="P3">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q3">
         <v>0.002</v>
@@ -706,7 +706,7 @@
         <v>5000.0</v>
       </c>
       <c r="P4">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q4">
         <v>0.002</v>
@@ -774,7 +774,7 @@
         <v>5000.0</v>
       </c>
       <c r="P5">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q5">
         <v>0.002</v>
@@ -842,7 +842,7 @@
         <v>5000.0</v>
       </c>
       <c r="P6">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q6">
         <v>0.002</v>
@@ -910,7 +910,7 @@
         <v>5000.0</v>
       </c>
       <c r="P7">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q7">
         <v>0.002</v>
@@ -978,7 +978,7 @@
         <v>5000.0</v>
       </c>
       <c r="P8">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q8">
         <v>0.002</v>
@@ -1046,7 +1046,7 @@
         <v>5000.0</v>
       </c>
       <c r="P9">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q9">
         <v>0.002</v>
@@ -1114,7 +1114,7 @@
         <v>5000.0</v>
       </c>
       <c r="P10">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q10">
         <v>0.002</v>
@@ -1182,7 +1182,7 @@
         <v>5000.0</v>
       </c>
       <c r="P11">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q11">
         <v>0.002</v>
@@ -1250,7 +1250,7 @@
         <v>5000.0</v>
       </c>
       <c r="P12">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q12">
         <v>0.002</v>
@@ -1318,7 +1318,7 @@
         <v>5000.0</v>
       </c>
       <c r="P13">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q13">
         <v>0.002</v>
@@ -1386,7 +1386,7 @@
         <v>5000.0</v>
       </c>
       <c r="P14">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q14">
         <v>0.002</v>
@@ -1454,7 +1454,7 @@
         <v>5000.0</v>
       </c>
       <c r="P15">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q15">
         <v>0.002</v>
@@ -1522,7 +1522,7 @@
         <v>5000.0</v>
       </c>
       <c r="P16">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q16">
         <v>0.002</v>
@@ -1590,7 +1590,7 @@
         <v>5000.0</v>
       </c>
       <c r="P17">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q17">
         <v>0.002</v>
@@ -1658,7 +1658,7 @@
         <v>5000.0</v>
       </c>
       <c r="P18">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q18">
         <v>0.002</v>
@@ -1726,7 +1726,7 @@
         <v>5000.0</v>
       </c>
       <c r="P19">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q19">
         <v>0.002</v>
@@ -1794,7 +1794,7 @@
         <v>5000.0</v>
       </c>
       <c r="P20">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q20">
         <v>0.002</v>
@@ -1862,7 +1862,7 @@
         <v>5000.0</v>
       </c>
       <c r="P21">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q21">
         <v>0.002</v>
@@ -1930,7 +1930,7 @@
         <v>5000.0</v>
       </c>
       <c r="P22">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q22">
         <v>0.002</v>
@@ -1998,7 +1998,7 @@
         <v>5000.0</v>
       </c>
       <c r="P23">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q23">
         <v>0.002</v>
@@ -2066,7 +2066,7 @@
         <v>5000.0</v>
       </c>
       <c r="P24">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q24">
         <v>0.002</v>
@@ -2134,7 +2134,7 @@
         <v>5000.0</v>
       </c>
       <c r="P25">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q25">
         <v>0.002</v>
@@ -2202,7 +2202,7 @@
         <v>5000.0</v>
       </c>
       <c r="P26">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q26">
         <v>0.002</v>
@@ -2270,7 +2270,7 @@
         <v>5000.0</v>
       </c>
       <c r="P27">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q27">
         <v>0.002</v>
@@ -2338,7 +2338,7 @@
         <v>5000.0</v>
       </c>
       <c r="P28">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q28">
         <v>0.002</v>
@@ -2406,7 +2406,7 @@
         <v>5000.0</v>
       </c>
       <c r="P29">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q29">
         <v>0.002</v>
@@ -2474,7 +2474,7 @@
         <v>5000.0</v>
       </c>
       <c r="P30">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q30">
         <v>0.002</v>
@@ -2542,7 +2542,7 @@
         <v>5000.0</v>
       </c>
       <c r="P31">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q31">
         <v>0.002</v>
@@ -2610,7 +2610,7 @@
         <v>5000.0</v>
       </c>
       <c r="P32">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q32">
         <v>0.002</v>
@@ -2678,7 +2678,7 @@
         <v>5000.0</v>
       </c>
       <c r="P33">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q33">
         <v>0.002</v>
@@ -2746,7 +2746,7 @@
         <v>5000.0</v>
       </c>
       <c r="P34">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q34">
         <v>0.002</v>
@@ -2814,7 +2814,7 @@
         <v>5000.0</v>
       </c>
       <c r="P35">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q35">
         <v>0.002</v>
@@ -2882,7 +2882,7 @@
         <v>5000.0</v>
       </c>
       <c r="P36">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q36">
         <v>0.002</v>
@@ -2950,7 +2950,7 @@
         <v>5000.0</v>
       </c>
       <c r="P37">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q37">
         <v>0.002</v>
@@ -3018,7 +3018,7 @@
         <v>5000.0</v>
       </c>
       <c r="P38">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q38">
         <v>0.002</v>
@@ -3086,7 +3086,7 @@
         <v>5000.0</v>
       </c>
       <c r="P39">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q39">
         <v>0.002</v>
@@ -3154,7 +3154,7 @@
         <v>5000.0</v>
       </c>
       <c r="P40">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q40">
         <v>0.002</v>
@@ -3222,7 +3222,7 @@
         <v>5000.0</v>
       </c>
       <c r="P41">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q41">
         <v>0.002</v>
@@ -3290,7 +3290,7 @@
         <v>5000.0</v>
       </c>
       <c r="P42">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q42">
         <v>0.002</v>
@@ -3358,7 +3358,7 @@
         <v>5000.0</v>
       </c>
       <c r="P43">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q43">
         <v>0.002</v>
@@ -3426,7 +3426,7 @@
         <v>5000.0</v>
       </c>
       <c r="P44">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q44">
         <v>0.002</v>
@@ -3494,7 +3494,7 @@
         <v>5000.0</v>
       </c>
       <c r="P45">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q45">
         <v>0.002</v>
@@ -3562,7 +3562,7 @@
         <v>5000.0</v>
       </c>
       <c r="P46">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q46">
         <v>0.002</v>
@@ -3630,7 +3630,7 @@
         <v>5000.0</v>
       </c>
       <c r="P47">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q47">
         <v>0.002</v>
@@ -3698,7 +3698,7 @@
         <v>5000.0</v>
       </c>
       <c r="P48">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q48">
         <v>0.002</v>
@@ -3766,7 +3766,7 @@
         <v>5000.0</v>
       </c>
       <c r="P49">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q49">
         <v>0.002</v>
@@ -3834,7 +3834,7 @@
         <v>5000.0</v>
       </c>
       <c r="P50">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q50">
         <v>0.002</v>
@@ -3902,7 +3902,7 @@
         <v>5000.0</v>
       </c>
       <c r="P51">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q51">
         <v>0.002</v>
@@ -3970,7 +3970,7 @@
         <v>5000.0</v>
       </c>
       <c r="P52">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q52">
         <v>0.002</v>
@@ -4038,7 +4038,7 @@
         <v>5000.0</v>
       </c>
       <c r="P53">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q53">
         <v>0.002</v>
@@ -4106,7 +4106,7 @@
         <v>5000.0</v>
       </c>
       <c r="P54">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q54">
         <v>0.002</v>
@@ -4174,7 +4174,7 @@
         <v>5000.0</v>
       </c>
       <c r="P55">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q55">
         <v>0.002</v>
@@ -4242,7 +4242,7 @@
         <v>5000.0</v>
       </c>
       <c r="P56">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q56">
         <v>0.002</v>
@@ -4310,7 +4310,7 @@
         <v>5000.0</v>
       </c>
       <c r="P57">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q57">
         <v>0.002</v>
@@ -4378,7 +4378,7 @@
         <v>5000.0</v>
       </c>
       <c r="P58">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q58">
         <v>0.002</v>
@@ -4446,7 +4446,7 @@
         <v>5000.0</v>
       </c>
       <c r="P59">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q59">
         <v>0.002</v>
@@ -4514,7 +4514,7 @@
         <v>5000.0</v>
       </c>
       <c r="P60">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q60">
         <v>0.002</v>
@@ -4582,7 +4582,7 @@
         <v>5000.0</v>
       </c>
       <c r="P61">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q61">
         <v>0.002</v>
@@ -4650,7 +4650,7 @@
         <v>5000.0</v>
       </c>
       <c r="P62">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q62">
         <v>0.002</v>
@@ -4718,7 +4718,7 @@
         <v>5000.0</v>
       </c>
       <c r="P63">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q63">
         <v>0.002</v>
@@ -4786,7 +4786,7 @@
         <v>5000.0</v>
       </c>
       <c r="P64">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q64">
         <v>0.002</v>
@@ -4854,7 +4854,7 @@
         <v>5000.0</v>
       </c>
       <c r="P65">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q65">
         <v>0.002</v>
@@ -4922,7 +4922,7 @@
         <v>5000.0</v>
       </c>
       <c r="P66">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q66">
         <v>0.002</v>
@@ -4990,7 +4990,7 @@
         <v>5000.0</v>
       </c>
       <c r="P67">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q67">
         <v>0.002</v>
@@ -5058,7 +5058,7 @@
         <v>5000.0</v>
       </c>
       <c r="P68">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q68">
         <v>0.002</v>
@@ -5126,7 +5126,7 @@
         <v>5000.0</v>
       </c>
       <c r="P69">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q69">
         <v>0.002</v>
@@ -5194,7 +5194,7 @@
         <v>5000.0</v>
       </c>
       <c r="P70">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q70">
         <v>0.002</v>
@@ -5262,7 +5262,7 @@
         <v>5000.0</v>
       </c>
       <c r="P71">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q71">
         <v>0.002</v>
@@ -5330,7 +5330,7 @@
         <v>5000.0</v>
       </c>
       <c r="P72">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q72">
         <v>0.002</v>
@@ -5398,7 +5398,7 @@
         <v>5000.0</v>
       </c>
       <c r="P73">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q73">
         <v>0.002</v>
@@ -5466,7 +5466,7 @@
         <v>5000.0</v>
       </c>
       <c r="P74">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q74">
         <v>0.002</v>
@@ -5534,7 +5534,7 @@
         <v>5000.0</v>
       </c>
       <c r="P75">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q75">
         <v>0.002</v>
@@ -5602,7 +5602,7 @@
         <v>5000.0</v>
       </c>
       <c r="P76">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q76">
         <v>0.002</v>
@@ -5670,7 +5670,7 @@
         <v>5000.0</v>
       </c>
       <c r="P77">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q77">
         <v>0.002</v>
@@ -5738,7 +5738,7 @@
         <v>5000.0</v>
       </c>
       <c r="P78">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q78">
         <v>0.002</v>
@@ -5806,7 +5806,7 @@
         <v>5000.0</v>
       </c>
       <c r="P79">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q79">
         <v>0.002</v>
@@ -5874,7 +5874,7 @@
         <v>5000.0</v>
       </c>
       <c r="P80">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q80">
         <v>0.002</v>
@@ -5942,7 +5942,7 @@
         <v>5000.0</v>
       </c>
       <c r="P81">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q81">
         <v>0.002</v>
@@ -6010,7 +6010,7 @@
         <v>5000.0</v>
       </c>
       <c r="P82">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q82">
         <v>0.002</v>
@@ -6078,7 +6078,7 @@
         <v>5000.0</v>
       </c>
       <c r="P83">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q83">
         <v>0.002</v>
@@ -6146,7 +6146,7 @@
         <v>5000.0</v>
       </c>
       <c r="P84">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q84">
         <v>0.002</v>
@@ -6214,7 +6214,7 @@
         <v>5000.0</v>
       </c>
       <c r="P85">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q85">
         <v>0.002</v>
@@ -6282,7 +6282,7 @@
         <v>5000.0</v>
       </c>
       <c r="P86">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q86">
         <v>0.002</v>
@@ -6350,7 +6350,7 @@
         <v>5000.0</v>
       </c>
       <c r="P87">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q87">
         <v>0.002</v>
@@ -6418,7 +6418,7 @@
         <v>5000.0</v>
       </c>
       <c r="P88">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q88">
         <v>0.002</v>
@@ -6486,7 +6486,7 @@
         <v>5000.0</v>
       </c>
       <c r="P89">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q89">
         <v>0.002</v>
@@ -6554,7 +6554,7 @@
         <v>5000.0</v>
       </c>
       <c r="P90">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q90">
         <v>0.002</v>
@@ -6622,7 +6622,7 @@
         <v>5000.0</v>
       </c>
       <c r="P91">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q91">
         <v>0.002</v>
@@ -6690,7 +6690,7 @@
         <v>5000.0</v>
       </c>
       <c r="P92">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q92">
         <v>0.002</v>
@@ -6758,7 +6758,7 @@
         <v>5000.0</v>
       </c>
       <c r="P93">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q93">
         <v>0.002</v>
@@ -6826,7 +6826,7 @@
         <v>5000.0</v>
       </c>
       <c r="P94">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q94">
         <v>0.002</v>
@@ -6894,7 +6894,7 @@
         <v>5000.0</v>
       </c>
       <c r="P95">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q95">
         <v>0.002</v>
@@ -6962,7 +6962,7 @@
         <v>5000.0</v>
       </c>
       <c r="P96">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q96">
         <v>0.002</v>
@@ -7030,7 +7030,7 @@
         <v>5000.0</v>
       </c>
       <c r="P97">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q97">
         <v>0.002</v>
@@ -7098,7 +7098,7 @@
         <v>5000.0</v>
       </c>
       <c r="P98">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q98">
         <v>0.002</v>
@@ -7166,7 +7166,7 @@
         <v>5000.0</v>
       </c>
       <c r="P99">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q99">
         <v>0.002</v>
@@ -7234,7 +7234,7 @@
         <v>5000.0</v>
       </c>
       <c r="P100">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q100">
         <v>0.002</v>
@@ -7302,7 +7302,7 @@
         <v>5000.0</v>
       </c>
       <c r="P101">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q101">
         <v>0.002</v>
@@ -7370,7 +7370,7 @@
         <v>5000.0</v>
       </c>
       <c r="P102">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q102">
         <v>0.002</v>
@@ -7438,7 +7438,7 @@
         <v>5000.0</v>
       </c>
       <c r="P103">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q103">
         <v>0.002</v>
@@ -7506,7 +7506,7 @@
         <v>5000.0</v>
       </c>
       <c r="P104">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q104">
         <v>0.002</v>
@@ -7574,7 +7574,7 @@
         <v>5000.0</v>
       </c>
       <c r="P105">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q105">
         <v>0.002</v>
@@ -7642,7 +7642,7 @@
         <v>5000.0</v>
       </c>
       <c r="P106">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q106">
         <v>0.002</v>
@@ -7710,7 +7710,7 @@
         <v>5000.0</v>
       </c>
       <c r="P107">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q107">
         <v>0.002</v>
@@ -7778,7 +7778,7 @@
         <v>5000.0</v>
       </c>
       <c r="P108">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q108">
         <v>0.002</v>
@@ -7846,7 +7846,7 @@
         <v>5000.0</v>
       </c>
       <c r="P109">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q109">
         <v>0.002</v>
@@ -7914,7 +7914,7 @@
         <v>5000.0</v>
       </c>
       <c r="P110">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q110">
         <v>0.002</v>
@@ -7982,7 +7982,7 @@
         <v>5000.0</v>
       </c>
       <c r="P111">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q111">
         <v>0.002</v>
@@ -8050,7 +8050,7 @@
         <v>5000.0</v>
       </c>
       <c r="P112">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q112">
         <v>0.002</v>
@@ -8118,7 +8118,7 @@
         <v>5000.0</v>
       </c>
       <c r="P113">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q113">
         <v>0.002</v>
@@ -8186,7 +8186,7 @@
         <v>5000.0</v>
       </c>
       <c r="P114">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q114">
         <v>0.002</v>
@@ -8254,7 +8254,7 @@
         <v>5000.0</v>
       </c>
       <c r="P115">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q115">
         <v>0.002</v>
@@ -8322,7 +8322,7 @@
         <v>5000.0</v>
       </c>
       <c r="P116">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q116">
         <v>0.002</v>
@@ -8390,7 +8390,7 @@
         <v>5000.0</v>
       </c>
       <c r="P117">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q117">
         <v>0.002</v>
@@ -8458,7 +8458,7 @@
         <v>5000.0</v>
       </c>
       <c r="P118">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q118">
         <v>0.002</v>
@@ -8526,7 +8526,7 @@
         <v>5000.0</v>
       </c>
       <c r="P119">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q119">
         <v>0.002</v>
@@ -8594,7 +8594,7 @@
         <v>5000.0</v>
       </c>
       <c r="P120">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q120">
         <v>0.002</v>
@@ -8662,7 +8662,7 @@
         <v>5000.0</v>
       </c>
       <c r="P121">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q121">
         <v>0.002</v>
@@ -8730,7 +8730,7 @@
         <v>5000.0</v>
       </c>
       <c r="P122">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q122">
         <v>0.002</v>
@@ -8798,7 +8798,7 @@
         <v>5000.0</v>
       </c>
       <c r="P123">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q123">
         <v>0.002</v>
@@ -8866,7 +8866,7 @@
         <v>5000.0</v>
       </c>
       <c r="P124">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q124">
         <v>0.002</v>
@@ -8934,7 +8934,7 @@
         <v>5000.0</v>
       </c>
       <c r="P125">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q125">
         <v>0.002</v>
@@ -9002,7 +9002,7 @@
         <v>5000.0</v>
       </c>
       <c r="P126">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q126">
         <v>0.002</v>
@@ -9070,7 +9070,7 @@
         <v>5000.0</v>
       </c>
       <c r="P127">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q127">
         <v>0.002</v>
@@ -9138,7 +9138,7 @@
         <v>5000.0</v>
       </c>
       <c r="P128">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q128">
         <v>0.002</v>
@@ -9206,7 +9206,7 @@
         <v>5000.0</v>
       </c>
       <c r="P129">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q129">
         <v>0.002</v>
@@ -9274,7 +9274,7 @@
         <v>5000.0</v>
       </c>
       <c r="P130">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q130">
         <v>0.002</v>
@@ -9342,7 +9342,7 @@
         <v>5000.0</v>
       </c>
       <c r="P131">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q131">
         <v>0.002</v>
@@ -9410,7 +9410,7 @@
         <v>5000.0</v>
       </c>
       <c r="P132">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q132">
         <v>0.002</v>
@@ -9478,7 +9478,7 @@
         <v>5000.0</v>
       </c>
       <c r="P133">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q133">
         <v>0.002</v>
@@ -9546,7 +9546,7 @@
         <v>5000.0</v>
       </c>
       <c r="P134">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q134">
         <v>0.002</v>
@@ -9614,7 +9614,7 @@
         <v>5000.0</v>
       </c>
       <c r="P135">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q135">
         <v>0.002</v>
@@ -9682,7 +9682,7 @@
         <v>5000.0</v>
       </c>
       <c r="P136">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q136">
         <v>0.002</v>
@@ -9750,7 +9750,7 @@
         <v>5000.0</v>
       </c>
       <c r="P137">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q137">
         <v>0.002</v>
@@ -9818,7 +9818,7 @@
         <v>5000.0</v>
       </c>
       <c r="P138">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q138">
         <v>0.002</v>
@@ -9886,7 +9886,7 @@
         <v>5000.0</v>
       </c>
       <c r="P139">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q139">
         <v>0.002</v>
@@ -9954,7 +9954,7 @@
         <v>5000.0</v>
       </c>
       <c r="P140">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q140">
         <v>0.002</v>
@@ -10022,7 +10022,7 @@
         <v>5000.0</v>
       </c>
       <c r="P141">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q141">
         <v>0.002</v>
@@ -10090,7 +10090,7 @@
         <v>5000.0</v>
       </c>
       <c r="P142">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q142">
         <v>0.002</v>
@@ -10158,7 +10158,7 @@
         <v>5000.0</v>
       </c>
       <c r="P143">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q143">
         <v>0.002</v>
@@ -10226,7 +10226,7 @@
         <v>5000.0</v>
       </c>
       <c r="P144">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q144">
         <v>0.002</v>
@@ -10294,7 +10294,7 @@
         <v>5000.0</v>
       </c>
       <c r="P145">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q145">
         <v>0.002</v>
@@ -10362,7 +10362,7 @@
         <v>5000.0</v>
       </c>
       <c r="P146">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q146">
         <v>0.002</v>
@@ -10430,7 +10430,7 @@
         <v>5000.0</v>
       </c>
       <c r="P147">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q147">
         <v>0.002</v>
@@ -10498,7 +10498,7 @@
         <v>5000.0</v>
       </c>
       <c r="P148">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q148">
         <v>0.002</v>
@@ -10566,7 +10566,7 @@
         <v>5000.0</v>
       </c>
       <c r="P149">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q149">
         <v>0.002</v>
@@ -10634,7 +10634,7 @@
         <v>5000.0</v>
       </c>
       <c r="P150">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q150">
         <v>0.002</v>
@@ -10702,7 +10702,7 @@
         <v>5000.0</v>
       </c>
       <c r="P151">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q151">
         <v>0.002</v>
@@ -10770,7 +10770,7 @@
         <v>5000.0</v>
       </c>
       <c r="P152">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q152">
         <v>0.002</v>
@@ -10838,7 +10838,7 @@
         <v>5000.0</v>
       </c>
       <c r="P153">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q153">
         <v>0.002</v>
@@ -10906,7 +10906,7 @@
         <v>5000.0</v>
       </c>
       <c r="P154">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q154">
         <v>0.002</v>
@@ -10974,7 +10974,7 @@
         <v>5000.0</v>
       </c>
       <c r="P155">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q155">
         <v>0.002</v>
@@ -11042,7 +11042,7 @@
         <v>5000.0</v>
       </c>
       <c r="P156">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q156">
         <v>0.002</v>
@@ -11110,7 +11110,7 @@
         <v>5000.0</v>
       </c>
       <c r="P157">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q157">
         <v>0.002</v>
@@ -11178,7 +11178,7 @@
         <v>5000.0</v>
       </c>
       <c r="P158">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q158">
         <v>0.002</v>
@@ -11246,7 +11246,7 @@
         <v>5000.0</v>
       </c>
       <c r="P159">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q159">
         <v>0.002</v>
@@ -11314,7 +11314,7 @@
         <v>5000.0</v>
       </c>
       <c r="P160">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q160">
         <v>0.002</v>
@@ -11382,7 +11382,7 @@
         <v>5000.0</v>
       </c>
       <c r="P161">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q161">
         <v>0.002</v>
@@ -11450,7 +11450,7 @@
         <v>5000.0</v>
       </c>
       <c r="P162">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q162">
         <v>0.002</v>
@@ -11518,7 +11518,7 @@
         <v>5000.0</v>
       </c>
       <c r="P163">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q163">
         <v>0.002</v>
@@ -11586,7 +11586,7 @@
         <v>5000.0</v>
       </c>
       <c r="P164">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q164">
         <v>0.002</v>
@@ -11654,7 +11654,7 @@
         <v>5000.0</v>
       </c>
       <c r="P165">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q165">
         <v>0.002</v>
@@ -11722,7 +11722,7 @@
         <v>5000.0</v>
       </c>
       <c r="P166">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q166">
         <v>0.002</v>
@@ -11790,7 +11790,7 @@
         <v>5000.0</v>
       </c>
       <c r="P167">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q167">
         <v>0.002</v>
@@ -11858,7 +11858,7 @@
         <v>5000.0</v>
       </c>
       <c r="P168">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q168">
         <v>0.002</v>
@@ -11926,7 +11926,7 @@
         <v>5000.0</v>
       </c>
       <c r="P169">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q169">
         <v>0.002</v>
@@ -11994,7 +11994,7 @@
         <v>5000.0</v>
       </c>
       <c r="P170">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q170">
         <v>0.002</v>
@@ -12062,7 +12062,7 @@
         <v>5000.0</v>
       </c>
       <c r="P171">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q171">
         <v>0.002</v>
@@ -12130,7 +12130,7 @@
         <v>5000.0</v>
       </c>
       <c r="P172">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q172">
         <v>0.002</v>
@@ -12198,7 +12198,7 @@
         <v>5000.0</v>
       </c>
       <c r="P173">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q173">
         <v>0.002</v>
@@ -12266,7 +12266,7 @@
         <v>5000.0</v>
       </c>
       <c r="P174">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q174">
         <v>0.002</v>
@@ -12334,7 +12334,7 @@
         <v>5000.0</v>
       </c>
       <c r="P175">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q175">
         <v>0.002</v>
@@ -12402,7 +12402,7 @@
         <v>5000.0</v>
       </c>
       <c r="P176">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q176">
         <v>0.002</v>
@@ -12470,7 +12470,7 @@
         <v>5000.0</v>
       </c>
       <c r="P177">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q177">
         <v>0.002</v>
@@ -12538,7 +12538,7 @@
         <v>5000.0</v>
       </c>
       <c r="P178">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q178">
         <v>0.002</v>
@@ -12606,7 +12606,7 @@
         <v>5000.0</v>
       </c>
       <c r="P179">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q179">
         <v>0.002</v>
@@ -12674,7 +12674,7 @@
         <v>5000.0</v>
       </c>
       <c r="P180">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q180">
         <v>0.002</v>
@@ -12742,7 +12742,7 @@
         <v>5000.0</v>
       </c>
       <c r="P181">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q181">
         <v>0.002</v>
@@ -12810,7 +12810,7 @@
         <v>5000.0</v>
       </c>
       <c r="P182">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q182">
         <v>0.002</v>
@@ -12878,7 +12878,7 @@
         <v>5000.0</v>
       </c>
       <c r="P183">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q183">
         <v>0.002</v>
@@ -12946,7 +12946,7 @@
         <v>5000.0</v>
       </c>
       <c r="P184">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q184">
         <v>0.002</v>
@@ -13014,7 +13014,7 @@
         <v>5000.0</v>
       </c>
       <c r="P185">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q185">
         <v>0.002</v>
@@ -13082,7 +13082,7 @@
         <v>5000.0</v>
       </c>
       <c r="P186">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q186">
         <v>0.002</v>
@@ -13150,7 +13150,7 @@
         <v>5000.0</v>
       </c>
       <c r="P187">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q187">
         <v>0.002</v>
@@ -13218,7 +13218,7 @@
         <v>5000.0</v>
       </c>
       <c r="P188">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q188">
         <v>0.002</v>
@@ -13286,7 +13286,7 @@
         <v>5000.0</v>
       </c>
       <c r="P189">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q189">
         <v>0.002</v>
@@ -13354,7 +13354,7 @@
         <v>5000.0</v>
       </c>
       <c r="P190">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q190">
         <v>0.002</v>
@@ -13422,7 +13422,7 @@
         <v>5000.0</v>
       </c>
       <c r="P191">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q191">
         <v>0.002</v>
@@ -13490,7 +13490,7 @@
         <v>5000.0</v>
       </c>
       <c r="P192">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q192">
         <v>0.002</v>
@@ -13558,7 +13558,7 @@
         <v>5000.0</v>
       </c>
       <c r="P193">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q193">
         <v>0.002</v>
@@ -13626,7 +13626,7 @@
         <v>5000.0</v>
       </c>
       <c r="P194">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q194">
         <v>0.002</v>
@@ -13694,7 +13694,7 @@
         <v>5000.0</v>
       </c>
       <c r="P195">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q195">
         <v>0.002</v>
@@ -13762,7 +13762,7 @@
         <v>5000.0</v>
       </c>
       <c r="P196">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q196">
         <v>0.002</v>
@@ -13830,7 +13830,7 @@
         <v>5000.0</v>
       </c>
       <c r="P197">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q197">
         <v>0.002</v>
@@ -13898,7 +13898,7 @@
         <v>5000.0</v>
       </c>
       <c r="P198">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q198">
         <v>0.002</v>
@@ -13966,7 +13966,7 @@
         <v>5000.0</v>
       </c>
       <c r="P199">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q199">
         <v>0.002</v>
@@ -14034,7 +14034,7 @@
         <v>5000.0</v>
       </c>
       <c r="P200">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q200">
         <v>0.002</v>
@@ -14102,7 +14102,7 @@
         <v>5000.0</v>
       </c>
       <c r="P201">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q201">
         <v>0.002</v>
@@ -14170,7 +14170,7 @@
         <v>5000.0</v>
       </c>
       <c r="P202">
-        <v>2.1376856850792307e-10</v>
+        <v>2.1376856850792305e-10</v>
       </c>
       <c r="Q202">
         <v>0.002</v>
@@ -28068,7 +28068,7 @@
         <v>5000.0</v>
       </c>
       <c r="P2">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q2">
         <v>0.002</v>
@@ -28136,7 +28136,7 @@
         <v>5000.0</v>
       </c>
       <c r="P3">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q3">
         <v>0.002</v>
@@ -28204,7 +28204,7 @@
         <v>5000.0</v>
       </c>
       <c r="P4">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q4">
         <v>0.002</v>
@@ -28272,7 +28272,7 @@
         <v>5000.0</v>
       </c>
       <c r="P5">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q5">
         <v>0.002</v>
@@ -28340,7 +28340,7 @@
         <v>5000.0</v>
       </c>
       <c r="P6">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q6">
         <v>0.002</v>
@@ -28408,7 +28408,7 @@
         <v>5000.0</v>
       </c>
       <c r="P7">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q7">
         <v>0.002</v>
@@ -28476,7 +28476,7 @@
         <v>5000.0</v>
       </c>
       <c r="P8">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q8">
         <v>0.002</v>
@@ -28544,7 +28544,7 @@
         <v>5000.0</v>
       </c>
       <c r="P9">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q9">
         <v>0.002</v>
@@ -28612,7 +28612,7 @@
         <v>5000.0</v>
       </c>
       <c r="P10">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q10">
         <v>0.002</v>
@@ -28680,7 +28680,7 @@
         <v>5000.0</v>
       </c>
       <c r="P11">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q11">
         <v>0.002</v>
@@ -28748,7 +28748,7 @@
         <v>5000.0</v>
       </c>
       <c r="P12">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q12">
         <v>0.002</v>
@@ -28816,7 +28816,7 @@
         <v>5000.0</v>
       </c>
       <c r="P13">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q13">
         <v>0.002</v>
@@ -28884,7 +28884,7 @@
         <v>5000.0</v>
       </c>
       <c r="P14">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q14">
         <v>0.002</v>
@@ -28952,7 +28952,7 @@
         <v>5000.0</v>
       </c>
       <c r="P15">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q15">
         <v>0.002</v>
@@ -29020,7 +29020,7 @@
         <v>5000.0</v>
       </c>
       <c r="P16">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q16">
         <v>0.002</v>
@@ -29088,7 +29088,7 @@
         <v>5000.0</v>
       </c>
       <c r="P17">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q17">
         <v>0.002</v>
@@ -29156,7 +29156,7 @@
         <v>5000.0</v>
       </c>
       <c r="P18">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q18">
         <v>0.002</v>
@@ -29224,7 +29224,7 @@
         <v>5000.0</v>
       </c>
       <c r="P19">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q19">
         <v>0.002</v>
@@ -29292,7 +29292,7 @@
         <v>5000.0</v>
       </c>
       <c r="P20">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q20">
         <v>0.002</v>
@@ -29360,7 +29360,7 @@
         <v>5000.0</v>
       </c>
       <c r="P21">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q21">
         <v>0.002</v>
@@ -29428,7 +29428,7 @@
         <v>5000.0</v>
       </c>
       <c r="P22">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q22">
         <v>0.002</v>
@@ -29496,7 +29496,7 @@
         <v>5000.0</v>
       </c>
       <c r="P23">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q23">
         <v>0.002</v>
@@ -29564,7 +29564,7 @@
         <v>5000.0</v>
       </c>
       <c r="P24">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q24">
         <v>0.002</v>
@@ -29632,7 +29632,7 @@
         <v>5000.0</v>
       </c>
       <c r="P25">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q25">
         <v>0.002</v>
@@ -29700,7 +29700,7 @@
         <v>5000.0</v>
       </c>
       <c r="P26">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q26">
         <v>0.002</v>
@@ -29768,7 +29768,7 @@
         <v>5000.0</v>
       </c>
       <c r="P27">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q27">
         <v>0.002</v>
@@ -29836,7 +29836,7 @@
         <v>5000.0</v>
       </c>
       <c r="P28">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q28">
         <v>0.002</v>
@@ -29904,7 +29904,7 @@
         <v>5000.0</v>
       </c>
       <c r="P29">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q29">
         <v>0.002</v>
@@ -29972,7 +29972,7 @@
         <v>5000.0</v>
       </c>
       <c r="P30">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q30">
         <v>0.002</v>
@@ -30040,7 +30040,7 @@
         <v>5000.0</v>
       </c>
       <c r="P31">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q31">
         <v>0.002</v>
@@ -30108,7 +30108,7 @@
         <v>5000.0</v>
       </c>
       <c r="P32">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q32">
         <v>0.002</v>
@@ -30176,7 +30176,7 @@
         <v>5000.0</v>
       </c>
       <c r="P33">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q33">
         <v>0.002</v>
@@ -30244,7 +30244,7 @@
         <v>5000.0</v>
       </c>
       <c r="P34">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q34">
         <v>0.002</v>
@@ -30312,7 +30312,7 @@
         <v>5000.0</v>
       </c>
       <c r="P35">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q35">
         <v>0.002</v>
@@ -30380,7 +30380,7 @@
         <v>5000.0</v>
       </c>
       <c r="P36">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q36">
         <v>0.002</v>
@@ -30448,7 +30448,7 @@
         <v>5000.0</v>
       </c>
       <c r="P37">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q37">
         <v>0.002</v>
@@ -30516,7 +30516,7 @@
         <v>5000.0</v>
       </c>
       <c r="P38">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q38">
         <v>0.002</v>
@@ -30584,7 +30584,7 @@
         <v>5000.0</v>
       </c>
       <c r="P39">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q39">
         <v>0.002</v>
@@ -30652,7 +30652,7 @@
         <v>5000.0</v>
       </c>
       <c r="P40">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q40">
         <v>0.002</v>
@@ -30720,7 +30720,7 @@
         <v>5000.0</v>
       </c>
       <c r="P41">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q41">
         <v>0.002</v>
@@ -30788,7 +30788,7 @@
         <v>5000.0</v>
       </c>
       <c r="P42">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q42">
         <v>0.002</v>
@@ -30856,7 +30856,7 @@
         <v>5000.0</v>
       </c>
       <c r="P43">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q43">
         <v>0.002</v>
@@ -30924,7 +30924,7 @@
         <v>5000.0</v>
       </c>
       <c r="P44">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q44">
         <v>0.002</v>
@@ -30992,7 +30992,7 @@
         <v>5000.0</v>
       </c>
       <c r="P45">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q45">
         <v>0.002</v>
@@ -31060,7 +31060,7 @@
         <v>5000.0</v>
       </c>
       <c r="P46">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q46">
         <v>0.002</v>
@@ -31128,7 +31128,7 @@
         <v>5000.0</v>
       </c>
       <c r="P47">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q47">
         <v>0.002</v>
@@ -31196,7 +31196,7 @@
         <v>5000.0</v>
       </c>
       <c r="P48">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q48">
         <v>0.002</v>
@@ -31264,7 +31264,7 @@
         <v>5000.0</v>
       </c>
       <c r="P49">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q49">
         <v>0.002</v>
@@ -31332,7 +31332,7 @@
         <v>5000.0</v>
       </c>
       <c r="P50">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q50">
         <v>0.002</v>
@@ -31400,7 +31400,7 @@
         <v>5000.0</v>
       </c>
       <c r="P51">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q51">
         <v>0.002</v>
@@ -31468,7 +31468,7 @@
         <v>5000.0</v>
       </c>
       <c r="P52">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q52">
         <v>0.002</v>
@@ -31536,7 +31536,7 @@
         <v>5000.0</v>
       </c>
       <c r="P53">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q53">
         <v>0.002</v>
@@ -31604,7 +31604,7 @@
         <v>5000.0</v>
       </c>
       <c r="P54">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q54">
         <v>0.002</v>
@@ -31672,7 +31672,7 @@
         <v>5000.0</v>
       </c>
       <c r="P55">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q55">
         <v>0.002</v>
@@ -31740,7 +31740,7 @@
         <v>5000.0</v>
       </c>
       <c r="P56">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q56">
         <v>0.002</v>
@@ -31808,7 +31808,7 @@
         <v>5000.0</v>
       </c>
       <c r="P57">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q57">
         <v>0.002</v>
@@ -31876,7 +31876,7 @@
         <v>5000.0</v>
       </c>
       <c r="P58">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q58">
         <v>0.002</v>
@@ -31944,7 +31944,7 @@
         <v>5000.0</v>
       </c>
       <c r="P59">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q59">
         <v>0.002</v>
@@ -32012,7 +32012,7 @@
         <v>5000.0</v>
       </c>
       <c r="P60">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q60">
         <v>0.002</v>
@@ -32080,7 +32080,7 @@
         <v>5000.0</v>
       </c>
       <c r="P61">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q61">
         <v>0.002</v>
@@ -32148,7 +32148,7 @@
         <v>5000.0</v>
       </c>
       <c r="P62">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q62">
         <v>0.002</v>
@@ -32216,7 +32216,7 @@
         <v>5000.0</v>
       </c>
       <c r="P63">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q63">
         <v>0.002</v>
@@ -32284,7 +32284,7 @@
         <v>5000.0</v>
       </c>
       <c r="P64">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q64">
         <v>0.002</v>
@@ -32352,7 +32352,7 @@
         <v>5000.0</v>
       </c>
       <c r="P65">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q65">
         <v>0.002</v>
@@ -32420,7 +32420,7 @@
         <v>5000.0</v>
       </c>
       <c r="P66">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q66">
         <v>0.002</v>
@@ -32488,7 +32488,7 @@
         <v>5000.0</v>
       </c>
       <c r="P67">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q67">
         <v>0.002</v>
@@ -32556,7 +32556,7 @@
         <v>5000.0</v>
       </c>
       <c r="P68">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q68">
         <v>0.002</v>
@@ -32624,7 +32624,7 @@
         <v>5000.0</v>
       </c>
       <c r="P69">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q69">
         <v>0.002</v>
@@ -32692,7 +32692,7 @@
         <v>5000.0</v>
       </c>
       <c r="P70">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q70">
         <v>0.002</v>
@@ -32760,7 +32760,7 @@
         <v>5000.0</v>
       </c>
       <c r="P71">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q71">
         <v>0.002</v>
@@ -32828,7 +32828,7 @@
         <v>5000.0</v>
       </c>
       <c r="P72">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q72">
         <v>0.002</v>
@@ -32896,7 +32896,7 @@
         <v>5000.0</v>
       </c>
       <c r="P73">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q73">
         <v>0.002</v>
@@ -32964,7 +32964,7 @@
         <v>5000.0</v>
       </c>
       <c r="P74">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q74">
         <v>0.002</v>
@@ -33032,7 +33032,7 @@
         <v>5000.0</v>
       </c>
       <c r="P75">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q75">
         <v>0.002</v>
@@ -33100,7 +33100,7 @@
         <v>5000.0</v>
       </c>
       <c r="P76">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q76">
         <v>0.002</v>
@@ -33168,7 +33168,7 @@
         <v>5000.0</v>
       </c>
       <c r="P77">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q77">
         <v>0.002</v>
@@ -33236,7 +33236,7 @@
         <v>5000.0</v>
       </c>
       <c r="P78">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q78">
         <v>0.002</v>
@@ -33304,7 +33304,7 @@
         <v>5000.0</v>
       </c>
       <c r="P79">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q79">
         <v>0.002</v>
@@ -33372,7 +33372,7 @@
         <v>5000.0</v>
       </c>
       <c r="P80">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q80">
         <v>0.002</v>
@@ -33440,7 +33440,7 @@
         <v>5000.0</v>
       </c>
       <c r="P81">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q81">
         <v>0.002</v>
@@ -33508,7 +33508,7 @@
         <v>5000.0</v>
       </c>
       <c r="P82">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q82">
         <v>0.002</v>
@@ -33576,7 +33576,7 @@
         <v>5000.0</v>
       </c>
       <c r="P83">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q83">
         <v>0.002</v>
@@ -33644,7 +33644,7 @@
         <v>5000.0</v>
       </c>
       <c r="P84">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q84">
         <v>0.002</v>
@@ -33712,7 +33712,7 @@
         <v>5000.0</v>
       </c>
       <c r="P85">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q85">
         <v>0.002</v>
@@ -33780,7 +33780,7 @@
         <v>5000.0</v>
       </c>
       <c r="P86">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q86">
         <v>0.002</v>
@@ -33848,7 +33848,7 @@
         <v>5000.0</v>
       </c>
       <c r="P87">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q87">
         <v>0.002</v>
@@ -33916,7 +33916,7 @@
         <v>5000.0</v>
       </c>
       <c r="P88">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q88">
         <v>0.002</v>
@@ -33984,7 +33984,7 @@
         <v>5000.0</v>
       </c>
       <c r="P89">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q89">
         <v>0.002</v>
@@ -34052,7 +34052,7 @@
         <v>5000.0</v>
       </c>
       <c r="P90">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q90">
         <v>0.002</v>
@@ -34120,7 +34120,7 @@
         <v>5000.0</v>
       </c>
       <c r="P91">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q91">
         <v>0.002</v>
@@ -34188,7 +34188,7 @@
         <v>5000.0</v>
       </c>
       <c r="P92">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q92">
         <v>0.002</v>
@@ -34256,7 +34256,7 @@
         <v>5000.0</v>
       </c>
       <c r="P93">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q93">
         <v>0.002</v>
@@ -34324,7 +34324,7 @@
         <v>5000.0</v>
       </c>
       <c r="P94">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q94">
         <v>0.002</v>
@@ -34392,7 +34392,7 @@
         <v>5000.0</v>
       </c>
       <c r="P95">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q95">
         <v>0.002</v>
@@ -34460,7 +34460,7 @@
         <v>5000.0</v>
       </c>
       <c r="P96">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q96">
         <v>0.002</v>
@@ -34528,7 +34528,7 @@
         <v>5000.0</v>
       </c>
       <c r="P97">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q97">
         <v>0.002</v>
@@ -34596,7 +34596,7 @@
         <v>5000.0</v>
       </c>
       <c r="P98">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q98">
         <v>0.002</v>
@@ -34664,7 +34664,7 @@
         <v>5000.0</v>
       </c>
       <c r="P99">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q99">
         <v>0.002</v>
@@ -34732,7 +34732,7 @@
         <v>5000.0</v>
       </c>
       <c r="P100">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q100">
         <v>0.002</v>
@@ -34800,7 +34800,7 @@
         <v>5000.0</v>
       </c>
       <c r="P101">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q101">
         <v>0.002</v>
@@ -34868,7 +34868,7 @@
         <v>5000.0</v>
       </c>
       <c r="P102">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q102">
         <v>0.002</v>
@@ -34936,7 +34936,7 @@
         <v>5000.0</v>
       </c>
       <c r="P103">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q103">
         <v>0.002</v>
@@ -35004,7 +35004,7 @@
         <v>5000.0</v>
       </c>
       <c r="P104">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q104">
         <v>0.002</v>
@@ -35072,7 +35072,7 @@
         <v>5000.0</v>
       </c>
       <c r="P105">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q105">
         <v>0.002</v>
@@ -35140,7 +35140,7 @@
         <v>5000.0</v>
       </c>
       <c r="P106">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q106">
         <v>0.002</v>
@@ -35208,7 +35208,7 @@
         <v>5000.0</v>
       </c>
       <c r="P107">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q107">
         <v>0.002</v>
@@ -35276,7 +35276,7 @@
         <v>5000.0</v>
       </c>
       <c r="P108">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q108">
         <v>0.002</v>
@@ -35344,7 +35344,7 @@
         <v>5000.0</v>
       </c>
       <c r="P109">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q109">
         <v>0.002</v>
@@ -35412,7 +35412,7 @@
         <v>5000.0</v>
       </c>
       <c r="P110">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q110">
         <v>0.002</v>
@@ -35480,7 +35480,7 @@
         <v>5000.0</v>
       </c>
       <c r="P111">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q111">
         <v>0.002</v>
@@ -35548,7 +35548,7 @@
         <v>5000.0</v>
       </c>
       <c r="P112">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q112">
         <v>0.002</v>
@@ -35616,7 +35616,7 @@
         <v>5000.0</v>
       </c>
       <c r="P113">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q113">
         <v>0.002</v>
@@ -35684,7 +35684,7 @@
         <v>5000.0</v>
       </c>
       <c r="P114">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q114">
         <v>0.002</v>
@@ -35752,7 +35752,7 @@
         <v>5000.0</v>
       </c>
       <c r="P115">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q115">
         <v>0.002</v>
@@ -35820,7 +35820,7 @@
         <v>5000.0</v>
       </c>
       <c r="P116">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q116">
         <v>0.002</v>
@@ -35888,7 +35888,7 @@
         <v>5000.0</v>
       </c>
       <c r="P117">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q117">
         <v>0.002</v>
@@ -35956,7 +35956,7 @@
         <v>5000.0</v>
       </c>
       <c r="P118">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q118">
         <v>0.002</v>
@@ -36024,7 +36024,7 @@
         <v>5000.0</v>
       </c>
       <c r="P119">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q119">
         <v>0.002</v>
@@ -36092,7 +36092,7 @@
         <v>5000.0</v>
       </c>
       <c r="P120">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q120">
         <v>0.002</v>
@@ -36160,7 +36160,7 @@
         <v>5000.0</v>
       </c>
       <c r="P121">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q121">
         <v>0.002</v>
@@ -36228,7 +36228,7 @@
         <v>5000.0</v>
       </c>
       <c r="P122">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q122">
         <v>0.002</v>
@@ -36296,7 +36296,7 @@
         <v>5000.0</v>
       </c>
       <c r="P123">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q123">
         <v>0.002</v>
@@ -36364,7 +36364,7 @@
         <v>5000.0</v>
       </c>
       <c r="P124">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q124">
         <v>0.002</v>
@@ -36432,7 +36432,7 @@
         <v>5000.0</v>
       </c>
       <c r="P125">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q125">
         <v>0.002</v>
@@ -36500,7 +36500,7 @@
         <v>5000.0</v>
       </c>
       <c r="P126">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q126">
         <v>0.002</v>
@@ -36568,7 +36568,7 @@
         <v>5000.0</v>
       </c>
       <c r="P127">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q127">
         <v>0.002</v>
@@ -36636,7 +36636,7 @@
         <v>5000.0</v>
       </c>
       <c r="P128">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q128">
         <v>0.002</v>
@@ -36704,7 +36704,7 @@
         <v>5000.0</v>
       </c>
       <c r="P129">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q129">
         <v>0.002</v>
@@ -36772,7 +36772,7 @@
         <v>5000.0</v>
       </c>
       <c r="P130">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q130">
         <v>0.002</v>
@@ -36840,7 +36840,7 @@
         <v>5000.0</v>
       </c>
       <c r="P131">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q131">
         <v>0.002</v>
@@ -36908,7 +36908,7 @@
         <v>5000.0</v>
       </c>
       <c r="P132">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q132">
         <v>0.002</v>
@@ -36976,7 +36976,7 @@
         <v>5000.0</v>
       </c>
       <c r="P133">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q133">
         <v>0.002</v>
@@ -37044,7 +37044,7 @@
         <v>5000.0</v>
       </c>
       <c r="P134">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q134">
         <v>0.002</v>
@@ -37112,7 +37112,7 @@
         <v>5000.0</v>
       </c>
       <c r="P135">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q135">
         <v>0.002</v>
@@ -37180,7 +37180,7 @@
         <v>5000.0</v>
       </c>
       <c r="P136">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q136">
         <v>0.002</v>
@@ -37248,7 +37248,7 @@
         <v>5000.0</v>
       </c>
       <c r="P137">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q137">
         <v>0.002</v>
@@ -37316,7 +37316,7 @@
         <v>5000.0</v>
       </c>
       <c r="P138">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q138">
         <v>0.002</v>
@@ -37384,7 +37384,7 @@
         <v>5000.0</v>
       </c>
       <c r="P139">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q139">
         <v>0.002</v>
@@ -37452,7 +37452,7 @@
         <v>5000.0</v>
       </c>
       <c r="P140">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q140">
         <v>0.002</v>
@@ -37520,7 +37520,7 @@
         <v>5000.0</v>
       </c>
       <c r="P141">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q141">
         <v>0.002</v>
@@ -37588,7 +37588,7 @@
         <v>5000.0</v>
       </c>
       <c r="P142">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q142">
         <v>0.002</v>
@@ -37656,7 +37656,7 @@
         <v>5000.0</v>
       </c>
       <c r="P143">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q143">
         <v>0.002</v>
@@ -37724,7 +37724,7 @@
         <v>5000.0</v>
       </c>
       <c r="P144">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q144">
         <v>0.002</v>
@@ -37792,7 +37792,7 @@
         <v>5000.0</v>
       </c>
       <c r="P145">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q145">
         <v>0.002</v>
@@ -37860,7 +37860,7 @@
         <v>5000.0</v>
       </c>
       <c r="P146">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q146">
         <v>0.002</v>
@@ -37928,7 +37928,7 @@
         <v>5000.0</v>
       </c>
       <c r="P147">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q147">
         <v>0.002</v>
@@ -37996,7 +37996,7 @@
         <v>5000.0</v>
       </c>
       <c r="P148">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q148">
         <v>0.002</v>
@@ -38064,7 +38064,7 @@
         <v>5000.0</v>
       </c>
       <c r="P149">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q149">
         <v>0.002</v>
@@ -38132,7 +38132,7 @@
         <v>5000.0</v>
       </c>
       <c r="P150">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q150">
         <v>0.002</v>
@@ -38200,7 +38200,7 @@
         <v>5000.0</v>
       </c>
       <c r="P151">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q151">
         <v>0.002</v>
@@ -38268,7 +38268,7 @@
         <v>5000.0</v>
       </c>
       <c r="P152">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q152">
         <v>0.002</v>
@@ -38336,7 +38336,7 @@
         <v>5000.0</v>
       </c>
       <c r="P153">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q153">
         <v>0.002</v>
@@ -38404,7 +38404,7 @@
         <v>5000.0</v>
       </c>
       <c r="P154">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q154">
         <v>0.002</v>
@@ -38472,7 +38472,7 @@
         <v>5000.0</v>
       </c>
       <c r="P155">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q155">
         <v>0.002</v>
@@ -38540,7 +38540,7 @@
         <v>5000.0</v>
       </c>
       <c r="P156">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q156">
         <v>0.002</v>
@@ -38608,7 +38608,7 @@
         <v>5000.0</v>
       </c>
       <c r="P157">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q157">
         <v>0.002</v>
@@ -38676,7 +38676,7 @@
         <v>5000.0</v>
       </c>
       <c r="P158">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q158">
         <v>0.002</v>
@@ -38744,7 +38744,7 @@
         <v>5000.0</v>
       </c>
       <c r="P159">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q159">
         <v>0.002</v>
@@ -38812,7 +38812,7 @@
         <v>5000.0</v>
       </c>
       <c r="P160">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q160">
         <v>0.002</v>
@@ -38880,7 +38880,7 @@
         <v>5000.0</v>
       </c>
       <c r="P161">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q161">
         <v>0.002</v>
@@ -38948,7 +38948,7 @@
         <v>5000.0</v>
       </c>
       <c r="P162">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q162">
         <v>0.002</v>
@@ -39016,7 +39016,7 @@
         <v>5000.0</v>
       </c>
       <c r="P163">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q163">
         <v>0.002</v>
@@ -39084,7 +39084,7 @@
         <v>5000.0</v>
       </c>
       <c r="P164">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q164">
         <v>0.002</v>
@@ -39152,7 +39152,7 @@
         <v>5000.0</v>
       </c>
       <c r="P165">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q165">
         <v>0.002</v>
@@ -39220,7 +39220,7 @@
         <v>5000.0</v>
       </c>
       <c r="P166">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q166">
         <v>0.002</v>
@@ -39288,7 +39288,7 @@
         <v>5000.0</v>
       </c>
       <c r="P167">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q167">
         <v>0.002</v>
@@ -39356,7 +39356,7 @@
         <v>5000.0</v>
       </c>
       <c r="P168">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q168">
         <v>0.002</v>
@@ -39424,7 +39424,7 @@
         <v>5000.0</v>
       </c>
       <c r="P169">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q169">
         <v>0.002</v>
@@ -39492,7 +39492,7 @@
         <v>5000.0</v>
       </c>
       <c r="P170">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q170">
         <v>0.002</v>
@@ -39560,7 +39560,7 @@
         <v>5000.0</v>
       </c>
       <c r="P171">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q171">
         <v>0.002</v>
@@ -39628,7 +39628,7 @@
         <v>5000.0</v>
       </c>
       <c r="P172">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q172">
         <v>0.002</v>
@@ -39696,7 +39696,7 @@
         <v>5000.0</v>
       </c>
       <c r="P173">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q173">
         <v>0.002</v>
@@ -39764,7 +39764,7 @@
         <v>5000.0</v>
       </c>
       <c r="P174">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q174">
         <v>0.002</v>
@@ -39832,7 +39832,7 @@
         <v>5000.0</v>
       </c>
       <c r="P175">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q175">
         <v>0.002</v>
@@ -39900,7 +39900,7 @@
         <v>5000.0</v>
       </c>
       <c r="P176">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q176">
         <v>0.002</v>
@@ -39968,7 +39968,7 @@
         <v>5000.0</v>
       </c>
       <c r="P177">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q177">
         <v>0.002</v>
@@ -40036,7 +40036,7 @@
         <v>5000.0</v>
       </c>
       <c r="P178">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q178">
         <v>0.002</v>
@@ -40104,7 +40104,7 @@
         <v>5000.0</v>
       </c>
       <c r="P179">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q179">
         <v>0.002</v>
@@ -40172,7 +40172,7 @@
         <v>5000.0</v>
       </c>
       <c r="P180">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q180">
         <v>0.002</v>
@@ -40240,7 +40240,7 @@
         <v>5000.0</v>
       </c>
       <c r="P181">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q181">
         <v>0.002</v>
@@ -40308,7 +40308,7 @@
         <v>5000.0</v>
       </c>
       <c r="P182">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q182">
         <v>0.002</v>
@@ -40376,7 +40376,7 @@
         <v>5000.0</v>
       </c>
       <c r="P183">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q183">
         <v>0.002</v>
@@ -40444,7 +40444,7 @@
         <v>5000.0</v>
       </c>
       <c r="P184">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q184">
         <v>0.002</v>
@@ -40512,7 +40512,7 @@
         <v>5000.0</v>
       </c>
       <c r="P185">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q185">
         <v>0.002</v>
@@ -40580,7 +40580,7 @@
         <v>5000.0</v>
       </c>
       <c r="P186">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q186">
         <v>0.002</v>
@@ -40648,7 +40648,7 @@
         <v>5000.0</v>
       </c>
       <c r="P187">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q187">
         <v>0.002</v>
@@ -40716,7 +40716,7 @@
         <v>5000.0</v>
       </c>
       <c r="P188">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q188">
         <v>0.002</v>
@@ -40784,7 +40784,7 @@
         <v>5000.0</v>
       </c>
       <c r="P189">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q189">
         <v>0.002</v>
@@ -40852,7 +40852,7 @@
         <v>5000.0</v>
       </c>
       <c r="P190">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q190">
         <v>0.002</v>
@@ -40920,7 +40920,7 @@
         <v>5000.0</v>
       </c>
       <c r="P191">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q191">
         <v>0.002</v>
@@ -40988,7 +40988,7 @@
         <v>5000.0</v>
       </c>
       <c r="P192">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q192">
         <v>0.002</v>
@@ -41056,7 +41056,7 @@
         <v>5000.0</v>
       </c>
       <c r="P193">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q193">
         <v>0.002</v>
@@ -41124,7 +41124,7 @@
         <v>5000.0</v>
       </c>
       <c r="P194">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q194">
         <v>0.002</v>
@@ -41192,7 +41192,7 @@
         <v>5000.0</v>
       </c>
       <c r="P195">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q195">
         <v>0.002</v>
@@ -41260,7 +41260,7 @@
         <v>5000.0</v>
       </c>
       <c r="P196">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q196">
         <v>0.002</v>
@@ -41328,7 +41328,7 @@
         <v>5000.0</v>
       </c>
       <c r="P197">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q197">
         <v>0.002</v>
@@ -41396,7 +41396,7 @@
         <v>5000.0</v>
       </c>
       <c r="P198">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q198">
         <v>0.002</v>
@@ -41464,7 +41464,7 @@
         <v>5000.0</v>
       </c>
       <c r="P199">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q199">
         <v>0.002</v>
@@ -41532,7 +41532,7 @@
         <v>5000.0</v>
       </c>
       <c r="P200">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q200">
         <v>0.002</v>
@@ -41600,7 +41600,7 @@
         <v>5000.0</v>
       </c>
       <c r="P201">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q201">
         <v>0.002</v>
@@ -41668,7 +41668,7 @@
         <v>5000.0</v>
       </c>
       <c r="P202">
-        <v>2.1304991534217677e-10</v>
+        <v>2.1304991534217674e-10</v>
       </c>
       <c r="Q202">
         <v>0.002</v>
@@ -41817,7 +41817,7 @@
         <v>5000.0</v>
       </c>
       <c r="P2">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q2">
         <v>0.002</v>
@@ -41885,7 +41885,7 @@
         <v>5000.0</v>
       </c>
       <c r="P3">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q3">
         <v>0.002</v>
@@ -41953,7 +41953,7 @@
         <v>5000.0</v>
       </c>
       <c r="P4">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q4">
         <v>0.002</v>
@@ -42021,7 +42021,7 @@
         <v>5000.0</v>
       </c>
       <c r="P5">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q5">
         <v>0.002</v>
@@ -42089,7 +42089,7 @@
         <v>5000.0</v>
       </c>
       <c r="P6">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q6">
         <v>0.002</v>
@@ -42157,7 +42157,7 @@
         <v>5000.0</v>
       </c>
       <c r="P7">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q7">
         <v>0.002</v>
@@ -42225,7 +42225,7 @@
         <v>5000.0</v>
       </c>
       <c r="P8">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q8">
         <v>0.002</v>
@@ -42293,7 +42293,7 @@
         <v>5000.0</v>
       </c>
       <c r="P9">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q9">
         <v>0.002</v>
@@ -42361,7 +42361,7 @@
         <v>5000.0</v>
       </c>
       <c r="P10">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q10">
         <v>0.002</v>
@@ -42429,7 +42429,7 @@
         <v>5000.0</v>
       </c>
       <c r="P11">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q11">
         <v>0.002</v>
@@ -42497,7 +42497,7 @@
         <v>5000.0</v>
       </c>
       <c r="P12">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q12">
         <v>0.002</v>
@@ -42565,7 +42565,7 @@
         <v>5000.0</v>
       </c>
       <c r="P13">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q13">
         <v>0.002</v>
@@ -42633,7 +42633,7 @@
         <v>5000.0</v>
       </c>
       <c r="P14">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q14">
         <v>0.002</v>
@@ -42701,7 +42701,7 @@
         <v>5000.0</v>
       </c>
       <c r="P15">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q15">
         <v>0.002</v>
@@ -42769,7 +42769,7 @@
         <v>5000.0</v>
       </c>
       <c r="P16">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q16">
         <v>0.002</v>
@@ -42837,7 +42837,7 @@
         <v>5000.0</v>
       </c>
       <c r="P17">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q17">
         <v>0.002</v>
@@ -42905,7 +42905,7 @@
         <v>5000.0</v>
       </c>
       <c r="P18">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q18">
         <v>0.002</v>
@@ -42973,7 +42973,7 @@
         <v>5000.0</v>
       </c>
       <c r="P19">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q19">
         <v>0.002</v>
@@ -43041,7 +43041,7 @@
         <v>5000.0</v>
       </c>
       <c r="P20">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q20">
         <v>0.002</v>
@@ -43109,7 +43109,7 @@
         <v>5000.0</v>
       </c>
       <c r="P21">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q21">
         <v>0.002</v>
@@ -43177,7 +43177,7 @@
         <v>5000.0</v>
       </c>
       <c r="P22">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q22">
         <v>0.002</v>
@@ -43245,7 +43245,7 @@
         <v>5000.0</v>
       </c>
       <c r="P23">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q23">
         <v>0.002</v>
@@ -43313,7 +43313,7 @@
         <v>5000.0</v>
       </c>
       <c r="P24">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q24">
         <v>0.002</v>
@@ -43381,7 +43381,7 @@
         <v>5000.0</v>
       </c>
       <c r="P25">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q25">
         <v>0.002</v>
@@ -43449,7 +43449,7 @@
         <v>5000.0</v>
       </c>
       <c r="P26">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q26">
         <v>0.002</v>
@@ -43517,7 +43517,7 @@
         <v>5000.0</v>
       </c>
       <c r="P27">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q27">
         <v>0.002</v>
@@ -43585,7 +43585,7 @@
         <v>5000.0</v>
       </c>
       <c r="P28">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q28">
         <v>0.002</v>
@@ -43653,7 +43653,7 @@
         <v>5000.0</v>
       </c>
       <c r="P29">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q29">
         <v>0.002</v>
@@ -43721,7 +43721,7 @@
         <v>5000.0</v>
       </c>
       <c r="P30">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q30">
         <v>0.002</v>
@@ -43789,7 +43789,7 @@
         <v>5000.0</v>
       </c>
       <c r="P31">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q31">
         <v>0.002</v>
@@ -43857,7 +43857,7 @@
         <v>5000.0</v>
       </c>
       <c r="P32">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q32">
         <v>0.002</v>
@@ -43925,7 +43925,7 @@
         <v>5000.0</v>
       </c>
       <c r="P33">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q33">
         <v>0.002</v>
@@ -43993,7 +43993,7 @@
         <v>5000.0</v>
       </c>
       <c r="P34">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q34">
         <v>0.002</v>
@@ -44061,7 +44061,7 @@
         <v>5000.0</v>
       </c>
       <c r="P35">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q35">
         <v>0.002</v>
@@ -44129,7 +44129,7 @@
         <v>5000.0</v>
       </c>
       <c r="P36">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q36">
         <v>0.002</v>
@@ -44197,7 +44197,7 @@
         <v>5000.0</v>
       </c>
       <c r="P37">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q37">
         <v>0.002</v>
@@ -44265,7 +44265,7 @@
         <v>5000.0</v>
       </c>
       <c r="P38">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q38">
         <v>0.002</v>
@@ -44333,7 +44333,7 @@
         <v>5000.0</v>
       </c>
       <c r="P39">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q39">
         <v>0.002</v>
@@ -44401,7 +44401,7 @@
         <v>5000.0</v>
       </c>
       <c r="P40">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q40">
         <v>0.002</v>
@@ -44469,7 +44469,7 @@
         <v>5000.0</v>
       </c>
       <c r="P41">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q41">
         <v>0.002</v>
@@ -44537,7 +44537,7 @@
         <v>5000.0</v>
       </c>
       <c r="P42">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q42">
         <v>0.002</v>
@@ -44605,7 +44605,7 @@
         <v>5000.0</v>
       </c>
       <c r="P43">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q43">
         <v>0.002</v>
@@ -44673,7 +44673,7 @@
         <v>5000.0</v>
       </c>
       <c r="P44">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q44">
         <v>0.002</v>
@@ -44741,7 +44741,7 @@
         <v>5000.0</v>
       </c>
       <c r="P45">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q45">
         <v>0.002</v>
@@ -44809,7 +44809,7 @@
         <v>5000.0</v>
       </c>
       <c r="P46">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q46">
         <v>0.002</v>
@@ -44877,7 +44877,7 @@
         <v>5000.0</v>
       </c>
       <c r="P47">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q47">
         <v>0.002</v>
@@ -44945,7 +44945,7 @@
         <v>5000.0</v>
       </c>
       <c r="P48">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q48">
         <v>0.002</v>
@@ -45013,7 +45013,7 @@
         <v>5000.0</v>
       </c>
       <c r="P49">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q49">
         <v>0.002</v>
@@ -45081,7 +45081,7 @@
         <v>5000.0</v>
       </c>
       <c r="P50">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q50">
         <v>0.002</v>
@@ -45149,7 +45149,7 @@
         <v>5000.0</v>
       </c>
       <c r="P51">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q51">
         <v>0.002</v>
@@ -45217,7 +45217,7 @@
         <v>5000.0</v>
       </c>
       <c r="P52">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q52">
         <v>0.002</v>
@@ -45285,7 +45285,7 @@
         <v>5000.0</v>
       </c>
       <c r="P53">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q53">
         <v>0.002</v>
@@ -45353,7 +45353,7 @@
         <v>5000.0</v>
       </c>
       <c r="P54">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q54">
         <v>0.002</v>
@@ -45421,7 +45421,7 @@
         <v>5000.0</v>
       </c>
       <c r="P55">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q55">
         <v>0.002</v>
@@ -45489,7 +45489,7 @@
         <v>5000.0</v>
       </c>
       <c r="P56">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q56">
         <v>0.002</v>
@@ -45557,7 +45557,7 @@
         <v>5000.0</v>
       </c>
       <c r="P57">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q57">
         <v>0.002</v>
@@ -45625,7 +45625,7 @@
         <v>5000.0</v>
       </c>
       <c r="P58">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q58">
         <v>0.002</v>
@@ -45693,7 +45693,7 @@
         <v>5000.0</v>
       </c>
       <c r="P59">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q59">
         <v>0.002</v>
@@ -45761,7 +45761,7 @@
         <v>5000.0</v>
       </c>
       <c r="P60">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q60">
         <v>0.002</v>
@@ -45829,7 +45829,7 @@
         <v>5000.0</v>
       </c>
       <c r="P61">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q61">
         <v>0.002</v>
@@ -45897,7 +45897,7 @@
         <v>5000.0</v>
       </c>
       <c r="P62">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q62">
         <v>0.002</v>
@@ -45965,7 +45965,7 @@
         <v>5000.0</v>
       </c>
       <c r="P63">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q63">
         <v>0.002</v>
@@ -46033,7 +46033,7 @@
         <v>5000.0</v>
       </c>
       <c r="P64">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q64">
         <v>0.002</v>
@@ -46101,7 +46101,7 @@
         <v>5000.0</v>
       </c>
       <c r="P65">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q65">
         <v>0.002</v>
@@ -46169,7 +46169,7 @@
         <v>5000.0</v>
       </c>
       <c r="P66">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q66">
         <v>0.002</v>
@@ -46237,7 +46237,7 @@
         <v>5000.0</v>
       </c>
       <c r="P67">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q67">
         <v>0.002</v>
@@ -46305,7 +46305,7 @@
         <v>5000.0</v>
       </c>
       <c r="P68">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q68">
         <v>0.002</v>
@@ -46373,7 +46373,7 @@
         <v>5000.0</v>
       </c>
       <c r="P69">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q69">
         <v>0.002</v>
@@ -46441,7 +46441,7 @@
         <v>5000.0</v>
       </c>
       <c r="P70">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q70">
         <v>0.002</v>
@@ -46509,7 +46509,7 @@
         <v>5000.0</v>
       </c>
       <c r="P71">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q71">
         <v>0.002</v>
@@ -46577,7 +46577,7 @@
         <v>5000.0</v>
       </c>
       <c r="P72">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q72">
         <v>0.002</v>
@@ -46645,7 +46645,7 @@
         <v>5000.0</v>
       </c>
       <c r="P73">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q73">
         <v>0.002</v>
@@ -46713,7 +46713,7 @@
         <v>5000.0</v>
       </c>
       <c r="P74">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q74">
         <v>0.002</v>
@@ -46781,7 +46781,7 @@
         <v>5000.0</v>
       </c>
       <c r="P75">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q75">
         <v>0.002</v>
@@ -46849,7 +46849,7 @@
         <v>5000.0</v>
       </c>
       <c r="P76">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q76">
         <v>0.002</v>
@@ -46917,7 +46917,7 @@
         <v>5000.0</v>
       </c>
       <c r="P77">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q77">
         <v>0.002</v>
@@ -46985,7 +46985,7 @@
         <v>5000.0</v>
       </c>
       <c r="P78">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q78">
         <v>0.002</v>
@@ -47053,7 +47053,7 @@
         <v>5000.0</v>
       </c>
       <c r="P79">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q79">
         <v>0.002</v>
@@ -47121,7 +47121,7 @@
         <v>5000.0</v>
       </c>
       <c r="P80">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q80">
         <v>0.002</v>
@@ -47189,7 +47189,7 @@
         <v>5000.0</v>
       </c>
       <c r="P81">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q81">
         <v>0.002</v>
@@ -47257,7 +47257,7 @@
         <v>5000.0</v>
       </c>
       <c r="P82">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q82">
         <v>0.002</v>
@@ -47325,7 +47325,7 @@
         <v>5000.0</v>
       </c>
       <c r="P83">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q83">
         <v>0.002</v>
@@ -47393,7 +47393,7 @@
         <v>5000.0</v>
       </c>
       <c r="P84">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q84">
         <v>0.002</v>
@@ -47461,7 +47461,7 @@
         <v>5000.0</v>
       </c>
       <c r="P85">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q85">
         <v>0.002</v>
@@ -47529,7 +47529,7 @@
         <v>5000.0</v>
       </c>
       <c r="P86">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q86">
         <v>0.002</v>
@@ -47597,7 +47597,7 @@
         <v>5000.0</v>
       </c>
       <c r="P87">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q87">
         <v>0.002</v>
@@ -47665,7 +47665,7 @@
         <v>5000.0</v>
       </c>
       <c r="P88">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q88">
         <v>0.002</v>
@@ -47733,7 +47733,7 @@
         <v>5000.0</v>
       </c>
       <c r="P89">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q89">
         <v>0.002</v>
@@ -47801,7 +47801,7 @@
         <v>5000.0</v>
       </c>
       <c r="P90">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q90">
         <v>0.002</v>
@@ -47869,7 +47869,7 @@
         <v>5000.0</v>
       </c>
       <c r="P91">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q91">
         <v>0.002</v>
@@ -47937,7 +47937,7 @@
         <v>5000.0</v>
       </c>
       <c r="P92">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q92">
         <v>0.002</v>
@@ -48005,7 +48005,7 @@
         <v>5000.0</v>
       </c>
       <c r="P93">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q93">
         <v>0.002</v>
@@ -48073,7 +48073,7 @@
         <v>5000.0</v>
       </c>
       <c r="P94">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q94">
         <v>0.002</v>
@@ -48141,7 +48141,7 @@
         <v>5000.0</v>
       </c>
       <c r="P95">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q95">
         <v>0.002</v>
@@ -48209,7 +48209,7 @@
         <v>5000.0</v>
       </c>
       <c r="P96">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q96">
         <v>0.002</v>
@@ -48277,7 +48277,7 @@
         <v>5000.0</v>
       </c>
       <c r="P97">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q97">
         <v>0.002</v>
@@ -48345,7 +48345,7 @@
         <v>5000.0</v>
       </c>
       <c r="P98">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q98">
         <v>0.002</v>
@@ -48413,7 +48413,7 @@
         <v>5000.0</v>
       </c>
       <c r="P99">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q99">
         <v>0.002</v>
@@ -48481,7 +48481,7 @@
         <v>5000.0</v>
       </c>
       <c r="P100">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q100">
         <v>0.002</v>
@@ -48549,7 +48549,7 @@
         <v>5000.0</v>
       </c>
       <c r="P101">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q101">
         <v>0.002</v>
@@ -48617,7 +48617,7 @@
         <v>5000.0</v>
       </c>
       <c r="P102">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q102">
         <v>0.002</v>
@@ -48685,7 +48685,7 @@
         <v>5000.0</v>
       </c>
       <c r="P103">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q103">
         <v>0.002</v>
@@ -48753,7 +48753,7 @@
         <v>5000.0</v>
       </c>
       <c r="P104">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q104">
         <v>0.002</v>
@@ -48821,7 +48821,7 @@
         <v>5000.0</v>
       </c>
       <c r="P105">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q105">
         <v>0.002</v>
@@ -48889,7 +48889,7 @@
         <v>5000.0</v>
       </c>
       <c r="P106">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q106">
         <v>0.002</v>
@@ -48957,7 +48957,7 @@
         <v>5000.0</v>
       </c>
       <c r="P107">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q107">
         <v>0.002</v>
@@ -49025,7 +49025,7 @@
         <v>5000.0</v>
       </c>
       <c r="P108">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q108">
         <v>0.002</v>
@@ -49093,7 +49093,7 @@
         <v>5000.0</v>
       </c>
       <c r="P109">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q109">
         <v>0.002</v>
@@ -49161,7 +49161,7 @@
         <v>5000.0</v>
       </c>
       <c r="P110">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q110">
         <v>0.002</v>
@@ -49229,7 +49229,7 @@
         <v>5000.0</v>
       </c>
       <c r="P111">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q111">
         <v>0.002</v>
@@ -49297,7 +49297,7 @@
         <v>5000.0</v>
       </c>
       <c r="P112">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q112">
         <v>0.002</v>
@@ -49365,7 +49365,7 @@
         <v>5000.0</v>
       </c>
       <c r="P113">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q113">
         <v>0.002</v>
@@ -49433,7 +49433,7 @@
         <v>5000.0</v>
       </c>
       <c r="P114">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q114">
         <v>0.002</v>
@@ -49501,7 +49501,7 @@
         <v>5000.0</v>
       </c>
       <c r="P115">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q115">
         <v>0.002</v>
@@ -49569,7 +49569,7 @@
         <v>5000.0</v>
       </c>
       <c r="P116">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q116">
         <v>0.002</v>
@@ -49637,7 +49637,7 @@
         <v>5000.0</v>
       </c>
       <c r="P117">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q117">
         <v>0.002</v>
@@ -49705,7 +49705,7 @@
         <v>5000.0</v>
       </c>
       <c r="P118">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q118">
         <v>0.002</v>
@@ -49773,7 +49773,7 @@
         <v>5000.0</v>
       </c>
       <c r="P119">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q119">
         <v>0.002</v>
@@ -49841,7 +49841,7 @@
         <v>5000.0</v>
       </c>
       <c r="P120">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q120">
         <v>0.002</v>
@@ -49909,7 +49909,7 @@
         <v>5000.0</v>
       </c>
       <c r="P121">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q121">
         <v>0.002</v>
@@ -49977,7 +49977,7 @@
         <v>5000.0</v>
       </c>
       <c r="P122">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q122">
         <v>0.002</v>
@@ -50045,7 +50045,7 @@
         <v>5000.0</v>
       </c>
       <c r="P123">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q123">
         <v>0.002</v>
@@ -50113,7 +50113,7 @@
         <v>5000.0</v>
       </c>
       <c r="P124">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q124">
         <v>0.002</v>
@@ -50181,7 +50181,7 @@
         <v>5000.0</v>
       </c>
       <c r="P125">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q125">
         <v>0.002</v>
@@ -50249,7 +50249,7 @@
         <v>5000.0</v>
       </c>
       <c r="P126">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q126">
         <v>0.002</v>
@@ -50317,7 +50317,7 @@
         <v>5000.0</v>
       </c>
       <c r="P127">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q127">
         <v>0.002</v>
@@ -50385,7 +50385,7 @@
         <v>5000.0</v>
       </c>
       <c r="P128">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q128">
         <v>0.002</v>
@@ -50453,7 +50453,7 @@
         <v>5000.0</v>
       </c>
       <c r="P129">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q129">
         <v>0.002</v>
@@ -50521,7 +50521,7 @@
         <v>5000.0</v>
       </c>
       <c r="P130">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q130">
         <v>0.002</v>
@@ -50589,7 +50589,7 @@
         <v>5000.0</v>
       </c>
       <c r="P131">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q131">
         <v>0.002</v>
@@ -50657,7 +50657,7 @@
         <v>5000.0</v>
       </c>
       <c r="P132">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q132">
         <v>0.002</v>
@@ -50725,7 +50725,7 @@
         <v>5000.0</v>
       </c>
       <c r="P133">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q133">
         <v>0.002</v>
@@ -50793,7 +50793,7 @@
         <v>5000.0</v>
       </c>
       <c r="P134">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q134">
         <v>0.002</v>
@@ -50861,7 +50861,7 @@
         <v>5000.0</v>
       </c>
       <c r="P135">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q135">
         <v>0.002</v>
@@ -50929,7 +50929,7 @@
         <v>5000.0</v>
       </c>
       <c r="P136">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q136">
         <v>0.002</v>
@@ -50997,7 +50997,7 @@
         <v>5000.0</v>
       </c>
       <c r="P137">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q137">
         <v>0.002</v>
@@ -51065,7 +51065,7 @@
         <v>5000.0</v>
       </c>
       <c r="P138">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q138">
         <v>0.002</v>
@@ -51133,7 +51133,7 @@
         <v>5000.0</v>
       </c>
       <c r="P139">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q139">
         <v>0.002</v>
@@ -51201,7 +51201,7 @@
         <v>5000.0</v>
       </c>
       <c r="P140">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q140">
         <v>0.002</v>
@@ -51269,7 +51269,7 @@
         <v>5000.0</v>
       </c>
       <c r="P141">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q141">
         <v>0.002</v>
@@ -51337,7 +51337,7 @@
         <v>5000.0</v>
       </c>
       <c r="P142">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q142">
         <v>0.002</v>
@@ -51405,7 +51405,7 @@
         <v>5000.0</v>
       </c>
       <c r="P143">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q143">
         <v>0.002</v>
@@ -51473,7 +51473,7 @@
         <v>5000.0</v>
       </c>
       <c r="P144">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q144">
         <v>0.002</v>
@@ -51541,7 +51541,7 @@
         <v>5000.0</v>
       </c>
       <c r="P145">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q145">
         <v>0.002</v>
@@ -51609,7 +51609,7 @@
         <v>5000.0</v>
       </c>
       <c r="P146">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q146">
         <v>0.002</v>
@@ -51677,7 +51677,7 @@
         <v>5000.0</v>
       </c>
       <c r="P147">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q147">
         <v>0.002</v>
@@ -51745,7 +51745,7 @@
         <v>5000.0</v>
       </c>
       <c r="P148">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q148">
         <v>0.002</v>
@@ -51813,7 +51813,7 @@
         <v>5000.0</v>
       </c>
       <c r="P149">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q149">
         <v>0.002</v>
@@ -51881,7 +51881,7 @@
         <v>5000.0</v>
       </c>
       <c r="P150">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q150">
         <v>0.002</v>
@@ -51949,7 +51949,7 @@
         <v>5000.0</v>
       </c>
       <c r="P151">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q151">
         <v>0.002</v>
@@ -52017,7 +52017,7 @@
         <v>5000.0</v>
       </c>
       <c r="P152">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q152">
         <v>0.002</v>
@@ -52085,7 +52085,7 @@
         <v>5000.0</v>
       </c>
       <c r="P153">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q153">
         <v>0.002</v>
@@ -52153,7 +52153,7 @@
         <v>5000.0</v>
       </c>
       <c r="P154">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q154">
         <v>0.002</v>
@@ -52221,7 +52221,7 @@
         <v>5000.0</v>
       </c>
       <c r="P155">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q155">
         <v>0.002</v>
@@ -52289,7 +52289,7 @@
         <v>5000.0</v>
       </c>
       <c r="P156">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q156">
         <v>0.002</v>
@@ -52357,7 +52357,7 @@
         <v>5000.0</v>
       </c>
       <c r="P157">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q157">
         <v>0.002</v>
@@ -52425,7 +52425,7 @@
         <v>5000.0</v>
       </c>
       <c r="P158">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q158">
         <v>0.002</v>
@@ -52493,7 +52493,7 @@
         <v>5000.0</v>
       </c>
       <c r="P159">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q159">
         <v>0.002</v>
@@ -52561,7 +52561,7 @@
         <v>5000.0</v>
       </c>
       <c r="P160">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q160">
         <v>0.002</v>
@@ -52629,7 +52629,7 @@
         <v>5000.0</v>
       </c>
       <c r="P161">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q161">
         <v>0.002</v>
@@ -52697,7 +52697,7 @@
         <v>5000.0</v>
       </c>
       <c r="P162">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q162">
         <v>0.002</v>
@@ -52765,7 +52765,7 @@
         <v>5000.0</v>
       </c>
       <c r="P163">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q163">
         <v>0.002</v>
@@ -52833,7 +52833,7 @@
         <v>5000.0</v>
       </c>
       <c r="P164">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q164">
         <v>0.002</v>
@@ -52901,7 +52901,7 @@
         <v>5000.0</v>
       </c>
       <c r="P165">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q165">
         <v>0.002</v>
@@ -52969,7 +52969,7 @@
         <v>5000.0</v>
       </c>
       <c r="P166">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q166">
         <v>0.002</v>
@@ -53037,7 +53037,7 @@
         <v>5000.0</v>
       </c>
       <c r="P167">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q167">
         <v>0.002</v>
@@ -53105,7 +53105,7 @@
         <v>5000.0</v>
       </c>
       <c r="P168">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q168">
         <v>0.002</v>
@@ -53173,7 +53173,7 @@
         <v>5000.0</v>
       </c>
       <c r="P169">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q169">
         <v>0.002</v>
@@ -53241,7 +53241,7 @@
         <v>5000.0</v>
       </c>
       <c r="P170">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q170">
         <v>0.002</v>
@@ -53309,7 +53309,7 @@
         <v>5000.0</v>
       </c>
       <c r="P171">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q171">
         <v>0.002</v>
@@ -53377,7 +53377,7 @@
         <v>5000.0</v>
       </c>
       <c r="P172">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q172">
         <v>0.002</v>
@@ -53445,7 +53445,7 @@
         <v>5000.0</v>
       </c>
       <c r="P173">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q173">
         <v>0.002</v>
@@ -53513,7 +53513,7 @@
         <v>5000.0</v>
       </c>
       <c r="P174">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q174">
         <v>0.002</v>
@@ -53581,7 +53581,7 @@
         <v>5000.0</v>
       </c>
       <c r="P175">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q175">
         <v>0.002</v>
@@ -53649,7 +53649,7 @@
         <v>5000.0</v>
       </c>
       <c r="P176">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q176">
         <v>0.002</v>
@@ -53717,7 +53717,7 @@
         <v>5000.0</v>
       </c>
       <c r="P177">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q177">
         <v>0.002</v>
@@ -53785,7 +53785,7 @@
         <v>5000.0</v>
       </c>
       <c r="P178">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q178">
         <v>0.002</v>
@@ -53853,7 +53853,7 @@
         <v>5000.0</v>
       </c>
       <c r="P179">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q179">
         <v>0.002</v>
@@ -53921,7 +53921,7 @@
         <v>5000.0</v>
       </c>
       <c r="P180">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q180">
         <v>0.002</v>
@@ -53989,7 +53989,7 @@
         <v>5000.0</v>
       </c>
       <c r="P181">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q181">
         <v>0.002</v>
@@ -54057,7 +54057,7 @@
         <v>5000.0</v>
       </c>
       <c r="P182">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q182">
         <v>0.002</v>
@@ -54125,7 +54125,7 @@
         <v>5000.0</v>
       </c>
       <c r="P183">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q183">
         <v>0.002</v>
@@ -54193,7 +54193,7 @@
         <v>5000.0</v>
       </c>
       <c r="P184">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q184">
         <v>0.002</v>
@@ -54261,7 +54261,7 @@
         <v>5000.0</v>
       </c>
       <c r="P185">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q185">
         <v>0.002</v>
@@ -54329,7 +54329,7 @@
         <v>5000.0</v>
       </c>
       <c r="P186">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q186">
         <v>0.002</v>
@@ -54397,7 +54397,7 @@
         <v>5000.0</v>
       </c>
       <c r="P187">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q187">
         <v>0.002</v>
@@ -54465,7 +54465,7 @@
         <v>5000.0</v>
       </c>
       <c r="P188">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q188">
         <v>0.002</v>
@@ -54533,7 +54533,7 @@
         <v>5000.0</v>
       </c>
       <c r="P189">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q189">
         <v>0.002</v>
@@ -54601,7 +54601,7 @@
         <v>5000.0</v>
       </c>
       <c r="P190">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q190">
         <v>0.002</v>
@@ -54669,7 +54669,7 @@
         <v>5000.0</v>
       </c>
       <c r="P191">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q191">
         <v>0.002</v>
@@ -54737,7 +54737,7 @@
         <v>5000.0</v>
       </c>
       <c r="P192">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q192">
         <v>0.002</v>
@@ -54805,7 +54805,7 @@
         <v>5000.0</v>
       </c>
       <c r="P193">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q193">
         <v>0.002</v>
@@ -54873,7 +54873,7 @@
         <v>5000.0</v>
       </c>
       <c r="P194">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q194">
         <v>0.002</v>
@@ -54941,7 +54941,7 @@
         <v>5000.0</v>
       </c>
       <c r="P195">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q195">
         <v>0.002</v>
@@ -55009,7 +55009,7 @@
         <v>5000.0</v>
       </c>
       <c r="P196">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q196">
         <v>0.002</v>
@@ -55077,7 +55077,7 @@
         <v>5000.0</v>
       </c>
       <c r="P197">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q197">
         <v>0.002</v>
@@ -55145,7 +55145,7 @@
         <v>5000.0</v>
       </c>
       <c r="P198">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q198">
         <v>0.002</v>
@@ -55213,7 +55213,7 @@
         <v>5000.0</v>
       </c>
       <c r="P199">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q199">
         <v>0.002</v>
@@ -55281,7 +55281,7 @@
         <v>5000.0</v>
       </c>
       <c r="P200">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q200">
         <v>0.002</v>
@@ -55349,7 +55349,7 @@
         <v>5000.0</v>
       </c>
       <c r="P201">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q201">
         <v>0.002</v>
@@ -55417,7 +55417,7 @@
         <v>5000.0</v>
       </c>
       <c r="P202">
-        <v>2.134542662342199e-10</v>
+        <v>2.1345426623421988e-10</v>
       </c>
       <c r="Q202">
         <v>0.002</v>
@@ -55566,7 +55566,7 @@
         <v>5000.0</v>
       </c>
       <c r="P2">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q2">
         <v>0.002</v>
@@ -55634,7 +55634,7 @@
         <v>5000.0</v>
       </c>
       <c r="P3">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q3">
         <v>0.002</v>
@@ -55702,7 +55702,7 @@
         <v>5000.0</v>
       </c>
       <c r="P4">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q4">
         <v>0.002</v>
@@ -55770,7 +55770,7 @@
         <v>5000.0</v>
       </c>
       <c r="P5">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q5">
         <v>0.002</v>
@@ -55838,7 +55838,7 @@
         <v>5000.0</v>
       </c>
       <c r="P6">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q6">
         <v>0.002</v>
@@ -55906,7 +55906,7 @@
         <v>5000.0</v>
       </c>
       <c r="P7">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q7">
         <v>0.002</v>
@@ -55974,7 +55974,7 @@
         <v>5000.0</v>
       </c>
       <c r="P8">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q8">
         <v>0.002</v>
@@ -56042,7 +56042,7 @@
         <v>5000.0</v>
       </c>
       <c r="P9">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q9">
         <v>0.002</v>
@@ -56110,7 +56110,7 @@
         <v>5000.0</v>
       </c>
       <c r="P10">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q10">
         <v>0.002</v>
@@ -56178,7 +56178,7 @@
         <v>5000.0</v>
       </c>
       <c r="P11">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q11">
         <v>0.002</v>
@@ -56246,7 +56246,7 @@
         <v>5000.0</v>
       </c>
       <c r="P12">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q12">
         <v>0.002</v>
@@ -56314,7 +56314,7 @@
         <v>5000.0</v>
       </c>
       <c r="P13">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q13">
         <v>0.002</v>
@@ -56382,7 +56382,7 @@
         <v>5000.0</v>
       </c>
       <c r="P14">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q14">
         <v>0.002</v>
@@ -56450,7 +56450,7 @@
         <v>5000.0</v>
       </c>
       <c r="P15">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q15">
         <v>0.002</v>
@@ -56518,7 +56518,7 @@
         <v>5000.0</v>
       </c>
       <c r="P16">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q16">
         <v>0.002</v>
@@ -56586,7 +56586,7 @@
         <v>5000.0</v>
       </c>
       <c r="P17">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q17">
         <v>0.002</v>
@@ -56654,7 +56654,7 @@
         <v>5000.0</v>
       </c>
       <c r="P18">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q18">
         <v>0.002</v>
@@ -56722,7 +56722,7 @@
         <v>5000.0</v>
       </c>
       <c r="P19">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q19">
         <v>0.002</v>
@@ -56790,7 +56790,7 @@
         <v>5000.0</v>
       </c>
       <c r="P20">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q20">
         <v>0.002</v>
@@ -56858,7 +56858,7 @@
         <v>5000.0</v>
       </c>
       <c r="P21">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q21">
         <v>0.002</v>
@@ -56926,7 +56926,7 @@
         <v>5000.0</v>
       </c>
       <c r="P22">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q22">
         <v>0.002</v>
@@ -56994,7 +56994,7 @@
         <v>5000.0</v>
       </c>
       <c r="P23">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q23">
         <v>0.002</v>
@@ -57062,7 +57062,7 @@
         <v>5000.0</v>
       </c>
       <c r="P24">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q24">
         <v>0.002</v>
@@ -57130,7 +57130,7 @@
         <v>5000.0</v>
       </c>
       <c r="P25">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q25">
         <v>0.002</v>
@@ -57198,7 +57198,7 @@
         <v>5000.0</v>
       </c>
       <c r="P26">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q26">
         <v>0.002</v>
@@ -57266,7 +57266,7 @@
         <v>5000.0</v>
       </c>
       <c r="P27">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q27">
         <v>0.002</v>
@@ -57334,7 +57334,7 @@
         <v>5000.0</v>
       </c>
       <c r="P28">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q28">
         <v>0.002</v>
@@ -57402,7 +57402,7 @@
         <v>5000.0</v>
       </c>
       <c r="P29">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q29">
         <v>0.002</v>
@@ -57470,7 +57470,7 @@
         <v>5000.0</v>
       </c>
       <c r="P30">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q30">
         <v>0.002</v>
@@ -57538,7 +57538,7 @@
         <v>5000.0</v>
       </c>
       <c r="P31">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q31">
         <v>0.002</v>
@@ -57606,7 +57606,7 @@
         <v>5000.0</v>
       </c>
       <c r="P32">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q32">
         <v>0.002</v>
@@ -57674,7 +57674,7 @@
         <v>5000.0</v>
       </c>
       <c r="P33">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q33">
         <v>0.002</v>
@@ -57742,7 +57742,7 @@
         <v>5000.0</v>
       </c>
       <c r="P34">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q34">
         <v>0.002</v>
@@ -57810,7 +57810,7 @@
         <v>5000.0</v>
       </c>
       <c r="P35">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q35">
         <v>0.002</v>
@@ -57878,7 +57878,7 @@
         <v>5000.0</v>
       </c>
       <c r="P36">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q36">
         <v>0.002</v>
@@ -57946,7 +57946,7 @@
         <v>5000.0</v>
       </c>
       <c r="P37">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q37">
         <v>0.002</v>
@@ -58014,7 +58014,7 @@
         <v>5000.0</v>
       </c>
       <c r="P38">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q38">
         <v>0.002</v>
@@ -58082,7 +58082,7 @@
         <v>5000.0</v>
       </c>
       <c r="P39">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q39">
         <v>0.002</v>
@@ -58150,7 +58150,7 @@
         <v>5000.0</v>
       </c>
       <c r="P40">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q40">
         <v>0.002</v>
@@ -58218,7 +58218,7 @@
         <v>5000.0</v>
       </c>
       <c r="P41">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q41">
         <v>0.002</v>
@@ -58286,7 +58286,7 @@
         <v>5000.0</v>
       </c>
       <c r="P42">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q42">
         <v>0.002</v>
@@ -58354,7 +58354,7 @@
         <v>5000.0</v>
       </c>
       <c r="P43">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q43">
         <v>0.002</v>
@@ -58422,7 +58422,7 @@
         <v>5000.0</v>
       </c>
       <c r="P44">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q44">
         <v>0.002</v>
@@ -58490,7 +58490,7 @@
         <v>5000.0</v>
       </c>
       <c r="P45">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q45">
         <v>0.002</v>
@@ -58558,7 +58558,7 @@
         <v>5000.0</v>
       </c>
       <c r="P46">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q46">
         <v>0.002</v>
@@ -58626,7 +58626,7 @@
         <v>5000.0</v>
       </c>
       <c r="P47">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q47">
         <v>0.002</v>
@@ -58694,7 +58694,7 @@
         <v>5000.0</v>
       </c>
       <c r="P48">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q48">
         <v>0.002</v>
@@ -58762,7 +58762,7 @@
         <v>5000.0</v>
       </c>
       <c r="P49">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q49">
         <v>0.002</v>
@@ -58830,7 +58830,7 @@
         <v>5000.0</v>
       </c>
       <c r="P50">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q50">
         <v>0.002</v>
@@ -58898,7 +58898,7 @@
         <v>5000.0</v>
       </c>
       <c r="P51">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q51">
         <v>0.002</v>
@@ -58966,7 +58966,7 @@
         <v>5000.0</v>
       </c>
       <c r="P52">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q52">
         <v>0.002</v>
@@ -59034,7 +59034,7 @@
         <v>5000.0</v>
       </c>
       <c r="P53">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q53">
         <v>0.002</v>
@@ -59102,7 +59102,7 @@
         <v>5000.0</v>
       </c>
       <c r="P54">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q54">
         <v>0.002</v>
@@ -59170,7 +59170,7 @@
         <v>5000.0</v>
       </c>
       <c r="P55">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q55">
         <v>0.002</v>
@@ -59238,7 +59238,7 @@
         <v>5000.0</v>
       </c>
       <c r="P56">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q56">
         <v>0.002</v>
@@ -59306,7 +59306,7 @@
         <v>5000.0</v>
       </c>
       <c r="P57">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q57">
         <v>0.002</v>
@@ -59374,7 +59374,7 @@
         <v>5000.0</v>
       </c>
       <c r="P58">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q58">
         <v>0.002</v>
@@ -59442,7 +59442,7 @@
         <v>5000.0</v>
       </c>
       <c r="P59">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q59">
         <v>0.002</v>
@@ -59510,7 +59510,7 @@
         <v>5000.0</v>
       </c>
       <c r="P60">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q60">
         <v>0.002</v>
@@ -59578,7 +59578,7 @@
         <v>5000.0</v>
       </c>
       <c r="P61">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q61">
         <v>0.002</v>
@@ -59646,7 +59646,7 @@
         <v>5000.0</v>
       </c>
       <c r="P62">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q62">
         <v>0.002</v>
@@ -59714,7 +59714,7 @@
         <v>5000.0</v>
       </c>
       <c r="P63">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q63">
         <v>0.002</v>
@@ -59782,7 +59782,7 @@
         <v>5000.0</v>
       </c>
       <c r="P64">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q64">
         <v>0.002</v>
@@ -59850,7 +59850,7 @@
         <v>5000.0</v>
       </c>
       <c r="P65">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q65">
         <v>0.002</v>
@@ -59918,7 +59918,7 @@
         <v>5000.0</v>
       </c>
       <c r="P66">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q66">
         <v>0.002</v>
@@ -59986,7 +59986,7 @@
         <v>5000.0</v>
       </c>
       <c r="P67">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q67">
         <v>0.002</v>
@@ -60054,7 +60054,7 @@
         <v>5000.0</v>
       </c>
       <c r="P68">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q68">
         <v>0.002</v>
@@ -60122,7 +60122,7 @@
         <v>5000.0</v>
       </c>
       <c r="P69">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q69">
         <v>0.002</v>
@@ -60190,7 +60190,7 @@
         <v>5000.0</v>
       </c>
       <c r="P70">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q70">
         <v>0.002</v>
@@ -60258,7 +60258,7 @@
         <v>5000.0</v>
       </c>
       <c r="P71">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q71">
         <v>0.002</v>
@@ -60326,7 +60326,7 @@
         <v>5000.0</v>
       </c>
       <c r="P72">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q72">
         <v>0.002</v>
@@ -60394,7 +60394,7 @@
         <v>5000.0</v>
       </c>
       <c r="P73">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q73">
         <v>0.002</v>
@@ -60462,7 +60462,7 @@
         <v>5000.0</v>
       </c>
       <c r="P74">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q74">
         <v>0.002</v>
@@ -60530,7 +60530,7 @@
         <v>5000.0</v>
       </c>
       <c r="P75">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q75">
         <v>0.002</v>
@@ -60598,7 +60598,7 @@
         <v>5000.0</v>
       </c>
       <c r="P76">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q76">
         <v>0.002</v>
@@ -60666,7 +60666,7 @@
         <v>5000.0</v>
       </c>
       <c r="P77">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q77">
         <v>0.002</v>
@@ -60734,7 +60734,7 @@
         <v>5000.0</v>
       </c>
       <c r="P78">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q78">
         <v>0.002</v>
@@ -60802,7 +60802,7 @@
         <v>5000.0</v>
       </c>
       <c r="P79">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q79">
         <v>0.002</v>
@@ -60870,7 +60870,7 @@
         <v>5000.0</v>
       </c>
       <c r="P80">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q80">
         <v>0.002</v>
@@ -60938,7 +60938,7 @@
         <v>5000.0</v>
       </c>
       <c r="P81">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q81">
         <v>0.002</v>
@@ -61006,7 +61006,7 @@
         <v>5000.0</v>
       </c>
       <c r="P82">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q82">
         <v>0.002</v>
@@ -61074,7 +61074,7 @@
         <v>5000.0</v>
       </c>
       <c r="P83">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q83">
         <v>0.002</v>
@@ -61142,7 +61142,7 @@
         <v>5000.0</v>
       </c>
       <c r="P84">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q84">
         <v>0.002</v>
@@ -61210,7 +61210,7 @@
         <v>5000.0</v>
       </c>
       <c r="P85">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q85">
         <v>0.002</v>
@@ -61278,7 +61278,7 @@
         <v>5000.0</v>
       </c>
       <c r="P86">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q86">
         <v>0.002</v>
@@ -61346,7 +61346,7 @@
         <v>5000.0</v>
       </c>
       <c r="P87">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q87">
         <v>0.002</v>
@@ -61414,7 +61414,7 @@
         <v>5000.0</v>
       </c>
       <c r="P88">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q88">
         <v>0.002</v>
@@ -61482,7 +61482,7 @@
         <v>5000.0</v>
       </c>
       <c r="P89">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q89">
         <v>0.002</v>
@@ -61550,7 +61550,7 @@
         <v>5000.0</v>
       </c>
       <c r="P90">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q90">
         <v>0.002</v>
@@ -61618,7 +61618,7 @@
         <v>5000.0</v>
       </c>
       <c r="P91">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q91">
         <v>0.002</v>
@@ -61686,7 +61686,7 @@
         <v>5000.0</v>
       </c>
       <c r="P92">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q92">
         <v>0.002</v>
@@ -61754,7 +61754,7 @@
         <v>5000.0</v>
       </c>
       <c r="P93">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q93">
         <v>0.002</v>
@@ -61822,7 +61822,7 @@
         <v>5000.0</v>
       </c>
       <c r="P94">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q94">
         <v>0.002</v>
@@ -61890,7 +61890,7 @@
         <v>5000.0</v>
       </c>
       <c r="P95">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q95">
         <v>0.002</v>
@@ -61958,7 +61958,7 @@
         <v>5000.0</v>
       </c>
       <c r="P96">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q96">
         <v>0.002</v>
@@ -62026,7 +62026,7 @@
         <v>5000.0</v>
       </c>
       <c r="P97">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q97">
         <v>0.002</v>
@@ -62094,7 +62094,7 @@
         <v>5000.0</v>
       </c>
       <c r="P98">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q98">
         <v>0.002</v>
@@ -62162,7 +62162,7 @@
         <v>5000.0</v>
       </c>
       <c r="P99">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q99">
         <v>0.002</v>
@@ -62230,7 +62230,7 @@
         <v>5000.0</v>
       </c>
       <c r="P100">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q100">
         <v>0.002</v>
@@ -62298,7 +62298,7 @@
         <v>5000.0</v>
       </c>
       <c r="P101">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q101">
         <v>0.002</v>
@@ -62366,7 +62366,7 @@
         <v>5000.0</v>
       </c>
       <c r="P102">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q102">
         <v>0.002</v>
@@ -62434,7 +62434,7 @@
         <v>5000.0</v>
       </c>
       <c r="P103">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q103">
         <v>0.002</v>
@@ -62502,7 +62502,7 @@
         <v>5000.0</v>
       </c>
       <c r="P104">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q104">
         <v>0.002</v>
@@ -62570,7 +62570,7 @@
         <v>5000.0</v>
       </c>
       <c r="P105">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q105">
         <v>0.002</v>
@@ -62638,7 +62638,7 @@
         <v>5000.0</v>
       </c>
       <c r="P106">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q106">
         <v>0.002</v>
@@ -62706,7 +62706,7 @@
         <v>5000.0</v>
       </c>
       <c r="P107">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q107">
         <v>0.002</v>
@@ -62774,7 +62774,7 @@
         <v>5000.0</v>
       </c>
       <c r="P108">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q108">
         <v>0.002</v>
@@ -62842,7 +62842,7 @@
         <v>5000.0</v>
       </c>
       <c r="P109">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q109">
         <v>0.002</v>
@@ -62910,7 +62910,7 @@
         <v>5000.0</v>
       </c>
       <c r="P110">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q110">
         <v>0.002</v>
@@ -62978,7 +62978,7 @@
         <v>5000.0</v>
       </c>
       <c r="P111">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q111">
         <v>0.002</v>
@@ -63046,7 +63046,7 @@
         <v>5000.0</v>
       </c>
       <c r="P112">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q112">
         <v>0.002</v>
@@ -63114,7 +63114,7 @@
         <v>5000.0</v>
       </c>
       <c r="P113">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q113">
         <v>0.002</v>
@@ -63182,7 +63182,7 @@
         <v>5000.0</v>
       </c>
       <c r="P114">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q114">
         <v>0.002</v>
@@ -63250,7 +63250,7 @@
         <v>5000.0</v>
       </c>
       <c r="P115">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q115">
         <v>0.002</v>
@@ -63318,7 +63318,7 @@
         <v>5000.0</v>
       </c>
       <c r="P116">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q116">
         <v>0.002</v>
@@ -63386,7 +63386,7 @@
         <v>5000.0</v>
       </c>
       <c r="P117">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q117">
         <v>0.002</v>
@@ -63454,7 +63454,7 @@
         <v>5000.0</v>
       </c>
       <c r="P118">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q118">
         <v>0.002</v>
@@ -63522,7 +63522,7 @@
         <v>5000.0</v>
       </c>
       <c r="P119">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q119">
         <v>0.002</v>
@@ -63590,7 +63590,7 @@
         <v>5000.0</v>
       </c>
       <c r="P120">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q120">
         <v>0.002</v>
@@ -63658,7 +63658,7 @@
         <v>5000.0</v>
       </c>
       <c r="P121">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q121">
         <v>0.002</v>
@@ -63726,7 +63726,7 @@
         <v>5000.0</v>
       </c>
       <c r="P122">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q122">
         <v>0.002</v>
@@ -63794,7 +63794,7 @@
         <v>5000.0</v>
       </c>
       <c r="P123">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q123">
         <v>0.002</v>
@@ -63862,7 +63862,7 @@
         <v>5000.0</v>
       </c>
       <c r="P124">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q124">
         <v>0.002</v>
@@ -63930,7 +63930,7 @@
         <v>5000.0</v>
       </c>
       <c r="P125">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q125">
         <v>0.002</v>
@@ -63998,7 +63998,7 @@
         <v>5000.0</v>
       </c>
       <c r="P126">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q126">
         <v>0.002</v>
@@ -64066,7 +64066,7 @@
         <v>5000.0</v>
       </c>
       <c r="P127">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q127">
         <v>0.002</v>
@@ -64134,7 +64134,7 @@
         <v>5000.0</v>
       </c>
       <c r="P128">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q128">
         <v>0.002</v>
@@ -64202,7 +64202,7 @@
         <v>5000.0</v>
       </c>
       <c r="P129">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q129">
         <v>0.002</v>
@@ -64270,7 +64270,7 @@
         <v>5000.0</v>
       </c>
       <c r="P130">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q130">
         <v>0.002</v>
@@ -64338,7 +64338,7 @@
         <v>5000.0</v>
       </c>
       <c r="P131">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q131">
         <v>0.002</v>
@@ -64406,7 +64406,7 @@
         <v>5000.0</v>
       </c>
       <c r="P132">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q132">
         <v>0.002</v>
@@ -64474,7 +64474,7 @@
         <v>5000.0</v>
       </c>
       <c r="P133">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q133">
         <v>0.002</v>
@@ -64542,7 +64542,7 @@
         <v>5000.0</v>
       </c>
       <c r="P134">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q134">
         <v>0.002</v>
@@ -64610,7 +64610,7 @@
         <v>5000.0</v>
       </c>
       <c r="P135">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q135">
         <v>0.002</v>
@@ -64678,7 +64678,7 @@
         <v>5000.0</v>
       </c>
       <c r="P136">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q136">
         <v>0.002</v>
@@ -64746,7 +64746,7 @@
         <v>5000.0</v>
       </c>
       <c r="P137">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q137">
         <v>0.002</v>
@@ -64814,7 +64814,7 @@
         <v>5000.0</v>
       </c>
       <c r="P138">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q138">
         <v>0.002</v>
@@ -64882,7 +64882,7 @@
         <v>5000.0</v>
       </c>
       <c r="P139">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q139">
         <v>0.002</v>
@@ -64950,7 +64950,7 @@
         <v>5000.0</v>
       </c>
       <c r="P140">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q140">
         <v>0.002</v>
@@ -65018,7 +65018,7 @@
         <v>5000.0</v>
       </c>
       <c r="P141">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q141">
         <v>0.002</v>
@@ -65086,7 +65086,7 @@
         <v>5000.0</v>
       </c>
       <c r="P142">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q142">
         <v>0.002</v>
@@ -65154,7 +65154,7 @@
         <v>5000.0</v>
       </c>
       <c r="P143">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q143">
         <v>0.002</v>
@@ -65222,7 +65222,7 @@
         <v>5000.0</v>
       </c>
       <c r="P144">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q144">
         <v>0.002</v>
@@ -65290,7 +65290,7 @@
         <v>5000.0</v>
       </c>
       <c r="P145">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q145">
         <v>0.002</v>
@@ -65358,7 +65358,7 @@
         <v>5000.0</v>
       </c>
       <c r="P146">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q146">
         <v>0.002</v>
@@ -65426,7 +65426,7 @@
         <v>5000.0</v>
       </c>
       <c r="P147">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q147">
         <v>0.002</v>
@@ -65494,7 +65494,7 @@
         <v>5000.0</v>
       </c>
       <c r="P148">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q148">
         <v>0.002</v>
@@ -65562,7 +65562,7 @@
         <v>5000.0</v>
       </c>
       <c r="P149">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q149">
         <v>0.002</v>
@@ -65630,7 +65630,7 @@
         <v>5000.0</v>
       </c>
       <c r="P150">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q150">
         <v>0.002</v>
@@ -65698,7 +65698,7 @@
         <v>5000.0</v>
       </c>
       <c r="P151">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q151">
         <v>0.002</v>
@@ -65766,7 +65766,7 @@
         <v>5000.0</v>
       </c>
       <c r="P152">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q152">
         <v>0.002</v>
@@ -65834,7 +65834,7 @@
         <v>5000.0</v>
       </c>
       <c r="P153">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q153">
         <v>0.002</v>
@@ -65902,7 +65902,7 @@
         <v>5000.0</v>
       </c>
       <c r="P154">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q154">
         <v>0.002</v>
@@ -65970,7 +65970,7 @@
         <v>5000.0</v>
       </c>
       <c r="P155">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q155">
         <v>0.002</v>
@@ -66038,7 +66038,7 @@
         <v>5000.0</v>
       </c>
       <c r="P156">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q156">
         <v>0.002</v>
@@ -66106,7 +66106,7 @@
         <v>5000.0</v>
       </c>
       <c r="P157">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q157">
         <v>0.002</v>
@@ -66174,7 +66174,7 @@
         <v>5000.0</v>
       </c>
       <c r="P158">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q158">
         <v>0.002</v>
@@ -66242,7 +66242,7 @@
         <v>5000.0</v>
       </c>
       <c r="P159">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q159">
         <v>0.002</v>
@@ -66310,7 +66310,7 @@
         <v>5000.0</v>
       </c>
       <c r="P160">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q160">
         <v>0.002</v>
@@ -66378,7 +66378,7 @@
         <v>5000.0</v>
       </c>
       <c r="P161">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q161">
         <v>0.002</v>
@@ -66446,7 +66446,7 @@
         <v>5000.0</v>
       </c>
       <c r="P162">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q162">
         <v>0.002</v>
@@ -66514,7 +66514,7 @@
         <v>5000.0</v>
       </c>
       <c r="P163">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q163">
         <v>0.002</v>
@@ -66582,7 +66582,7 @@
         <v>5000.0</v>
       </c>
       <c r="P164">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q164">
         <v>0.002</v>
@@ -66650,7 +66650,7 @@
         <v>5000.0</v>
       </c>
       <c r="P165">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q165">
         <v>0.002</v>
@@ -66718,7 +66718,7 @@
         <v>5000.0</v>
       </c>
       <c r="P166">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q166">
         <v>0.002</v>
@@ -66786,7 +66786,7 @@
         <v>5000.0</v>
       </c>
       <c r="P167">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q167">
         <v>0.002</v>
@@ -66854,7 +66854,7 @@
         <v>5000.0</v>
       </c>
       <c r="P168">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q168">
         <v>0.002</v>
@@ -66922,7 +66922,7 @@
         <v>5000.0</v>
       </c>
       <c r="P169">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q169">
         <v>0.002</v>
@@ -66990,7 +66990,7 @@
         <v>5000.0</v>
       </c>
       <c r="P170">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q170">
         <v>0.002</v>
@@ -67058,7 +67058,7 @@
         <v>5000.0</v>
       </c>
       <c r="P171">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q171">
         <v>0.002</v>
@@ -67126,7 +67126,7 @@
         <v>5000.0</v>
       </c>
       <c r="P172">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q172">
         <v>0.002</v>
@@ -67194,7 +67194,7 @@
         <v>5000.0</v>
       </c>
       <c r="P173">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q173">
         <v>0.002</v>
@@ -67262,7 +67262,7 @@
         <v>5000.0</v>
       </c>
       <c r="P174">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q174">
         <v>0.002</v>
@@ -67330,7 +67330,7 @@
         <v>5000.0</v>
       </c>
       <c r="P175">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q175">
         <v>0.002</v>
@@ -67398,7 +67398,7 @@
         <v>5000.0</v>
       </c>
       <c r="P176">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q176">
         <v>0.002</v>
@@ -67466,7 +67466,7 @@
         <v>5000.0</v>
       </c>
       <c r="P177">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q177">
         <v>0.002</v>
@@ -67534,7 +67534,7 @@
         <v>5000.0</v>
       </c>
       <c r="P178">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q178">
         <v>0.002</v>
@@ -67602,7 +67602,7 @@
         <v>5000.0</v>
       </c>
       <c r="P179">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q179">
         <v>0.002</v>
@@ -67670,7 +67670,7 @@
         <v>5000.0</v>
       </c>
       <c r="P180">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q180">
         <v>0.002</v>
@@ -67738,7 +67738,7 @@
         <v>5000.0</v>
       </c>
       <c r="P181">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q181">
         <v>0.002</v>
@@ -67806,7 +67806,7 @@
         <v>5000.0</v>
       </c>
       <c r="P182">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q182">
         <v>0.002</v>
@@ -67874,7 +67874,7 @@
         <v>5000.0</v>
       </c>
       <c r="P183">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q183">
         <v>0.002</v>
@@ -67942,7 +67942,7 @@
         <v>5000.0</v>
       </c>
       <c r="P184">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q184">
         <v>0.002</v>
@@ -68010,7 +68010,7 @@
         <v>5000.0</v>
       </c>
       <c r="P185">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q185">
         <v>0.002</v>
@@ -68078,7 +68078,7 @@
         <v>5000.0</v>
       </c>
       <c r="P186">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q186">
         <v>0.002</v>
@@ -68146,7 +68146,7 @@
         <v>5000.0</v>
       </c>
       <c r="P187">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q187">
         <v>0.002</v>
@@ -68214,7 +68214,7 @@
         <v>5000.0</v>
       </c>
       <c r="P188">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q188">
         <v>0.002</v>
@@ -68282,7 +68282,7 @@
         <v>5000.0</v>
       </c>
       <c r="P189">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q189">
         <v>0.002</v>
@@ -68350,7 +68350,7 @@
         <v>5000.0</v>
       </c>
       <c r="P190">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q190">
         <v>0.002</v>
@@ -68418,7 +68418,7 @@
         <v>5000.0</v>
       </c>
       <c r="P191">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q191">
         <v>0.002</v>
@@ -68486,7 +68486,7 @@
         <v>5000.0</v>
       </c>
       <c r="P192">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q192">
         <v>0.002</v>
@@ -68554,7 +68554,7 @@
         <v>5000.0</v>
       </c>
       <c r="P193">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q193">
         <v>0.002</v>
@@ -68622,7 +68622,7 @@
         <v>5000.0</v>
       </c>
       <c r="P194">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q194">
         <v>0.002</v>
@@ -68690,7 +68690,7 @@
         <v>5000.0</v>
       </c>
       <c r="P195">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q195">
         <v>0.002</v>
@@ -68758,7 +68758,7 @@
         <v>5000.0</v>
       </c>
       <c r="P196">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q196">
         <v>0.002</v>
@@ -68826,7 +68826,7 @@
         <v>5000.0</v>
       </c>
       <c r="P197">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q197">
         <v>0.002</v>
@@ -68894,7 +68894,7 @@
         <v>5000.0</v>
       </c>
       <c r="P198">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q198">
         <v>0.002</v>
@@ -68962,7 +68962,7 @@
         <v>5000.0</v>
       </c>
       <c r="P199">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q199">
         <v>0.002</v>
@@ -69030,7 +69030,7 @@
         <v>5000.0</v>
       </c>
       <c r="P200">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q200">
         <v>0.002</v>
@@ -69098,7 +69098,7 @@
         <v>5000.0</v>
       </c>
       <c r="P201">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q201">
         <v>0.002</v>
@@ -69166,7 +69166,7 @@
         <v>5000.0</v>
       </c>
       <c r="P202">
-        <v>2.1421830915531545e-10</v>
+        <v>2.1421830915531542e-10</v>
       </c>
       <c r="Q202">
         <v>0.002</v>
